--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C059BF-73B0-48EA-A2A9-169053E9E523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046946FB-EAB9-4C81-B546-647280C372B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -274,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -314,7 +314,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -420,7 +420,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -562,7 +562,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -917,13 +917,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -967,8 +967,23 @@
       <c r="L1" s="2">
         <v>45324</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2">
+        <v>45327</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45328</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45329</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45330</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45331</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1005,8 +1020,23 @@
       <c r="L2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1034,8 +1064,23 @@
       <c r="I3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1063,8 +1108,23 @@
       <c r="I4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1092,8 +1152,23 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1121,8 +1196,23 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1150,8 +1240,23 @@
       <c r="I7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1179,8 +1284,23 @@
       <c r="I8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1208,8 +1328,23 @@
       <c r="I9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1237,8 +1372,23 @@
       <c r="I10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1266,8 +1416,23 @@
       <c r="I11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1295,8 +1460,23 @@
       <c r="I12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1324,8 +1504,23 @@
       <c r="I13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1353,8 +1548,23 @@
       <c r="I14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1382,8 +1592,23 @@
       <c r="I15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1411,8 +1636,23 @@
       <c r="I16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1440,8 +1680,23 @@
       <c r="I17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1469,8 +1724,23 @@
       <c r="I18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1498,8 +1768,23 @@
       <c r="I19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1527,8 +1812,23 @@
       <c r="I20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1556,8 +1856,23 @@
       <c r="I21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1585,8 +1900,23 @@
       <c r="I22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1614,8 +1944,23 @@
       <c r="I23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -1643,8 +1988,23 @@
       <c r="I24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1672,8 +2032,23 @@
       <c r="I25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>4</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1701,8 +2076,23 @@
       <c r="I26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -1730,8 +2120,23 @@
       <c r="I27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1757,6 +2162,21 @@
         <v>3</v>
       </c>
       <c r="I28" t="s">
+        <v>3</v>
+      </c>
+      <c r="J28" t="s">
+        <v>3</v>
+      </c>
+      <c r="K28" t="s">
+        <v>3</v>
+      </c>
+      <c r="L28" t="s">
+        <v>3</v>
+      </c>
+      <c r="M28" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046946FB-EAB9-4C81-B546-647280C372B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA56154-63B1-4FDB-822A-ED2132A4E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -923,7 +923,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1079,6 +1079,9 @@
       <c r="N3" t="s">
         <v>3</v>
       </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1123,6 +1126,9 @@
       <c r="N4" t="s">
         <v>3</v>
       </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1167,6 +1173,9 @@
       <c r="N5" t="s">
         <v>3</v>
       </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1211,6 +1220,9 @@
       <c r="N6" t="s">
         <v>3</v>
       </c>
+      <c r="O6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1255,6 +1267,9 @@
       <c r="N7" t="s">
         <v>3</v>
       </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1299,6 +1314,9 @@
       <c r="N8" t="s">
         <v>3</v>
       </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1343,6 +1361,9 @@
       <c r="N9" t="s">
         <v>3</v>
       </c>
+      <c r="O9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1387,6 +1408,9 @@
       <c r="N10" t="s">
         <v>3</v>
       </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1431,6 +1455,9 @@
       <c r="N11" t="s">
         <v>3</v>
       </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1475,6 +1502,9 @@
       <c r="N12" t="s">
         <v>3</v>
       </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1519,6 +1549,9 @@
       <c r="N13" t="s">
         <v>3</v>
       </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1563,6 +1596,9 @@
       <c r="N14" t="s">
         <v>3</v>
       </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1607,6 +1643,9 @@
       <c r="N15" t="s">
         <v>3</v>
       </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1651,8 +1690,11 @@
       <c r="N16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1695,8 +1737,11 @@
       <c r="N17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1739,8 +1784,11 @@
       <c r="N18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1783,8 +1831,11 @@
       <c r="N19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1827,8 +1878,11 @@
       <c r="N20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1871,8 +1925,11 @@
       <c r="N21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1915,8 +1972,11 @@
       <c r="N22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -1959,8 +2019,11 @@
       <c r="N23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2003,8 +2066,11 @@
       <c r="N24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2047,8 +2113,11 @@
       <c r="N25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2091,8 +2160,11 @@
       <c r="N26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2135,8 +2207,11 @@
       <c r="N27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2177,6 +2252,9 @@
         <v>3</v>
       </c>
       <c r="N28" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA56154-63B1-4FDB-822A-ED2132A4E197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD378AB6-2CC2-4C9B-9202-246AC88F6F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -917,13 +917,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
+      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,7 +932,7 @@
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,8 +982,17 @@
       <c r="Q1" s="2">
         <v>45331</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="2">
+        <v>45336</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45337</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1035,8 +1044,17 @@
       <c r="Q2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1082,8 +1100,20 @@
       <c r="O3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1129,8 +1159,20 @@
       <c r="O4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1176,8 +1218,20 @@
       <c r="O5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1223,8 +1277,20 @@
       <c r="O6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1270,8 +1336,20 @@
       <c r="O7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1317,8 +1395,20 @@
       <c r="O8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1364,8 +1454,20 @@
       <c r="O9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1411,8 +1513,20 @@
       <c r="O10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1458,8 +1572,20 @@
       <c r="O11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>4</v>
+      </c>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1505,8 +1631,20 @@
       <c r="O12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1552,8 +1690,20 @@
       <c r="O13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1599,8 +1749,20 @@
       <c r="O14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1646,8 +1808,20 @@
       <c r="O15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1693,8 +1867,20 @@
       <c r="O16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1740,8 +1926,20 @@
       <c r="O17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1787,8 +1985,20 @@
       <c r="O18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1834,8 +2044,20 @@
       <c r="O19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1881,8 +2103,20 @@
       <c r="O20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>4</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -1928,8 +2162,20 @@
       <c r="O21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1975,8 +2221,20 @@
       <c r="O22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2022,8 +2280,20 @@
       <c r="O23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2069,8 +2339,20 @@
       <c r="O24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2116,8 +2398,20 @@
       <c r="O25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" t="s">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2163,8 +2457,20 @@
       <c r="O26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2210,8 +2516,20 @@
       <c r="O27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2255,6 +2573,18 @@
         <v>3</v>
       </c>
       <c r="O28" t="s">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>3</v>
+      </c>
+      <c r="R28" t="s">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD378AB6-2CC2-4C9B-9202-246AC88F6F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8736E7-F74E-40CE-B943-0A199F06E020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -196,7 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,6 +206,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -233,10 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,26 +926,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:AD28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P26" sqref="P26"/>
+      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2">
         <v>45313</v>
       </c>
@@ -991,8 +1001,38 @@
       <c r="T1" s="2">
         <v>45338</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="2">
+        <v>45341</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45342</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45343</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45344</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45345</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>45348</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>45349</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45350</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45351</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45352</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1053,8 +1093,38 @@
       <c r="T2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1182,32 @@
       <c r="S3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1171,8 +1265,32 @@
       <c r="S4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>4</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1230,8 +1348,32 @@
       <c r="S5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1289,8 +1431,32 @@
       <c r="S6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1514,32 @@
       <c r="S7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1407,8 +1597,32 @@
       <c r="S8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1466,8 +1680,32 @@
       <c r="S9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1525,8 +1763,32 @@
       <c r="S10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1584,8 +1846,32 @@
       <c r="S11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>4</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>4</v>
+      </c>
+      <c r="W11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1643,8 +1929,32 @@
       <c r="S12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1702,8 +2012,32 @@
       <c r="S13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1761,8 +2095,32 @@
       <c r="S14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1820,8 +2178,32 @@
       <c r="S15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1879,8 +2261,32 @@
       <c r="S16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>4</v>
+      </c>
+      <c r="U16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1938,8 +2344,32 @@
       <c r="S17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1997,8 +2427,32 @@
       <c r="S18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2056,8 +2510,32 @@
       <c r="S19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2115,8 +2593,32 @@
       <c r="S20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2174,8 +2676,32 @@
       <c r="S21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2233,8 +2759,32 @@
       <c r="S22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>4</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2292,8 +2842,32 @@
       <c r="S23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2351,8 +2925,32 @@
       <c r="S24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2410,8 +3008,32 @@
       <c r="S25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>4</v>
+      </c>
+      <c r="X25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2469,8 +3091,32 @@
       <c r="S26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>3</v>
+      </c>
+      <c r="X26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -2528,8 +3174,32 @@
       <c r="S27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>4</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27" t="s">
+        <v>4</v>
+      </c>
+      <c r="X27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -2585,6 +3255,30 @@
         <v>3</v>
       </c>
       <c r="S28" t="s">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s">
+        <v>3</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W28" t="s">
+        <v>3</v>
+      </c>
+      <c r="X28" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8736E7-F74E-40CE-B943-0A199F06E020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C151C-BCC7-4DAF-9B48-E74522C062BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="51">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,7 +932,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,7 +1097,7 @@
         <v>47</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="W2" t="s">
         <v>49</v>
@@ -1112,7 +1112,7 @@
         <v>47</v>
       </c>
       <c r="AA2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="s">
         <v>49</v>
@@ -1206,6 +1206,9 @@
       <c r="AA3" t="s">
         <v>3</v>
       </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1289,6 +1292,9 @@
       <c r="AA4" t="s">
         <v>3</v>
       </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1372,6 +1378,9 @@
       <c r="AA5" t="s">
         <v>3</v>
       </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1455,6 +1464,9 @@
       <c r="AA6" t="s">
         <v>4</v>
       </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1538,6 +1550,9 @@
       <c r="AA7" t="s">
         <v>3</v>
       </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1621,6 +1636,9 @@
       <c r="AA8" t="s">
         <v>3</v>
       </c>
+      <c r="AB8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1704,6 +1722,9 @@
       <c r="AA9" t="s">
         <v>3</v>
       </c>
+      <c r="AB9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1787,6 +1808,9 @@
       <c r="AA10" t="s">
         <v>3</v>
       </c>
+      <c r="AB10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1870,6 +1894,9 @@
       <c r="AA11" t="s">
         <v>4</v>
       </c>
+      <c r="AB11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1953,6 +1980,9 @@
       <c r="AA12" t="s">
         <v>3</v>
       </c>
+      <c r="AB12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2036,6 +2066,9 @@
       <c r="AA13" t="s">
         <v>3</v>
       </c>
+      <c r="AB13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2119,6 +2152,9 @@
       <c r="AA14" t="s">
         <v>3</v>
       </c>
+      <c r="AB14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2202,6 +2238,9 @@
       <c r="AA15" t="s">
         <v>3</v>
       </c>
+      <c r="AB15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2285,8 +2324,11 @@
       <c r="AA16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2368,8 +2410,11 @@
       <c r="AA17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2451,8 +2496,11 @@
       <c r="AA18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2534,8 +2582,11 @@
       <c r="AA19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2617,8 +2668,11 @@
       <c r="AA20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2700,8 +2754,11 @@
       <c r="AA21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2783,8 +2840,11 @@
       <c r="AA22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2866,8 +2926,11 @@
       <c r="AA23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2949,8 +3012,11 @@
       <c r="AA24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3032,8 +3098,11 @@
       <c r="AA25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3115,8 +3184,11 @@
       <c r="AA26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3198,8 +3270,11 @@
       <c r="AA27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3279,6 +3354,9 @@
         <v>3</v>
       </c>
       <c r="AA28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4C151C-BCC7-4DAF-9B48-E74522C062BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CCE44A-4136-4F9A-88F8-BFE293082B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>INDMO</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -926,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD28"/>
+  <dimension ref="A1:AF28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB1" sqref="AB1"/>
+      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,9 +943,10 @@
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1031,8 +1035,11 @@
       <c r="AD1" s="2">
         <v>45352</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE1" s="2">
+        <v>45355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1123,8 +1130,11 @@
       <c r="AD2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1209,8 +1219,17 @@
       <c r="AB3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1295,8 +1314,17 @@
       <c r="AB4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1381,8 +1409,17 @@
       <c r="AB5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1467,8 +1504,17 @@
       <c r="AB6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1553,8 +1599,17 @@
       <c r="AB7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1639,8 +1694,17 @@
       <c r="AB8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1725,8 +1789,17 @@
       <c r="AB9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1811,8 +1884,17 @@
       <c r="AB10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1897,8 +1979,17 @@
       <c r="AB11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1983,8 +2074,17 @@
       <c r="AB12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2069,8 +2169,17 @@
       <c r="AB13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2155,8 +2264,17 @@
       <c r="AB14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2241,8 +2359,17 @@
       <c r="AB15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AC15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2327,8 +2454,17 @@
       <c r="AB16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2413,8 +2549,17 @@
       <c r="AB17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2499,8 +2644,17 @@
       <c r="AB18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2585,8 +2739,17 @@
       <c r="AB19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2671,8 +2834,17 @@
       <c r="AB20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2757,8 +2929,17 @@
       <c r="AB21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -2843,8 +3024,17 @@
       <c r="AB22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -2929,8 +3119,18 @@
       <c r="AB23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF23" s="3"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3015,8 +3215,17 @@
       <c r="AB24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3101,8 +3310,17 @@
       <c r="AB25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3187,8 +3405,17 @@
       <c r="AB26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3273,8 +3500,17 @@
       <c r="AB27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="AC27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3357,6 +3593,15 @@
         <v>3</v>
       </c>
       <c r="AB28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE28" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CCE44A-4136-4F9A-88F8-BFE293082B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBDF8A-24DD-46B9-9C66-072831118843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,6 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
@@ -942,11 +943,19 @@
   <cols>
     <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1047,20 @@
       <c r="AE1" s="2">
         <v>45355</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF1" s="2">
+        <v>45356</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>45357</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>45358</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1133,8 +1154,20 @@
       <c r="AE2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1228,8 +1261,14 @@
       <c r="AE3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1362,14 @@
       <c r="AE4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1418,8 +1463,14 @@
       <c r="AE5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1513,8 +1564,14 @@
       <c r="AE6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1608,8 +1665,14 @@
       <c r="AE7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1703,8 +1766,14 @@
       <c r="AE8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1798,8 +1867,14 @@
       <c r="AE9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1893,8 +1968,14 @@
       <c r="AE10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1980,16 +2061,22 @@
         <v>3</v>
       </c>
       <c r="AC11" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AD11" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2083,8 +2170,14 @@
       <c r="AE12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2178,8 +2271,14 @@
       <c r="AE13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2273,8 +2372,14 @@
       <c r="AE14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2368,8 +2473,14 @@
       <c r="AE15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2458,13 +2569,19 @@
         <v>3</v>
       </c>
       <c r="AD16" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2550,16 +2667,22 @@
         <v>3</v>
       </c>
       <c r="AC17" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AD17" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2612,7 +2735,7 @@
         <v>3</v>
       </c>
       <c r="R18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="s">
         <v>3</v>
@@ -2648,13 +2771,19 @@
         <v>3</v>
       </c>
       <c r="AD18" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2748,8 +2877,14 @@
       <c r="AE19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2843,8 +2978,14 @@
       <c r="AE20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2938,8 +3079,14 @@
       <c r="AE21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3033,8 +3180,14 @@
       <c r="AE22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3128,9 +3281,14 @@
       <c r="AE23" t="s">
         <v>3</v>
       </c>
-      <c r="AF23" s="3"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3224,8 +3382,14 @@
       <c r="AE24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3319,8 +3483,14 @@
       <c r="AE25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3414,8 +3584,14 @@
       <c r="AE26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3509,8 +3685,14 @@
       <c r="AE27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AF27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3601,7 +3783,13 @@
       <c r="AD28" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="3" t="s">
+      <c r="AE28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG28" s="5" t="s">
         <v>3</v>
       </c>
     </row>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBBDF8A-24DD-46B9-9C66-072831118843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A042F-2269-4F45-883D-646868DE1958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -244,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -252,7 +252,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI28"/>
+  <dimension ref="A1:AI32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE28" sqref="AE28"/>
+      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,6 +1266,12 @@
       <c r="AG3" t="s">
         <v>3</v>
       </c>
+      <c r="AH3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1368,6 +1373,12 @@
       <c r="AG4" t="s">
         <v>3</v>
       </c>
+      <c r="AH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1469,6 +1480,12 @@
       <c r="AG5" t="s">
         <v>3</v>
       </c>
+      <c r="AH5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1570,6 +1587,12 @@
       <c r="AG6" t="s">
         <v>4</v>
       </c>
+      <c r="AH6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1671,6 +1694,12 @@
       <c r="AG7" t="s">
         <v>3</v>
       </c>
+      <c r="AH7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1772,6 +1801,12 @@
       <c r="AG8" t="s">
         <v>3</v>
       </c>
+      <c r="AH8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1873,6 +1908,12 @@
       <c r="AG9" t="s">
         <v>3</v>
       </c>
+      <c r="AH9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1974,6 +2015,12 @@
       <c r="AG10" t="s">
         <v>3</v>
       </c>
+      <c r="AH10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2075,6 +2122,12 @@
       <c r="AG11" t="s">
         <v>4</v>
       </c>
+      <c r="AH11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2176,6 +2229,12 @@
       <c r="AG12" t="s">
         <v>3</v>
       </c>
+      <c r="AH12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2277,6 +2336,12 @@
       <c r="AG13" t="s">
         <v>3</v>
       </c>
+      <c r="AH13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2378,6 +2443,12 @@
       <c r="AG14" t="s">
         <v>4</v>
       </c>
+      <c r="AH14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2479,6 +2550,12 @@
       <c r="AG15" t="s">
         <v>3</v>
       </c>
+      <c r="AH15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2580,8 +2657,14 @@
       <c r="AG16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2681,8 +2764,14 @@
       <c r="AG17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2782,8 +2871,14 @@
       <c r="AG18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2883,8 +2978,14 @@
       <c r="AG19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2984,8 +3085,14 @@
       <c r="AG20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3085,8 +3192,14 @@
       <c r="AG21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3186,8 +3299,14 @@
       <c r="AG22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3281,14 +3400,20 @@
       <c r="AE23" t="s">
         <v>3</v>
       </c>
-      <c r="AF23" s="5" t="s">
+      <c r="AF23" t="s">
         <v>3</v>
       </c>
       <c r="AG23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3382,14 +3507,20 @@
       <c r="AE24" t="s">
         <v>3</v>
       </c>
-      <c r="AF24" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG24" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3483,14 +3614,20 @@
       <c r="AE25" t="s">
         <v>4</v>
       </c>
-      <c r="AF25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG25" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3584,14 +3721,20 @@
       <c r="AE26" t="s">
         <v>3</v>
       </c>
-      <c r="AF26" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3685,14 +3828,20 @@
       <c r="AE27" t="s">
         <v>3</v>
       </c>
-      <c r="AF27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG27" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3783,15 +3932,27 @@
       <c r="AD28" t="s">
         <v>3</v>
       </c>
-      <c r="AE28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF28" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG28" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="AE28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AE32" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981A042F-2269-4F45-883D-646868DE1958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454ADEF-4D32-42F4-890E-F7CAB8CCF941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -929,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AI32"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE32" sqref="AE32"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,9 +952,10 @@
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1059,11 @@
       <c r="AI1" s="2">
         <v>45359</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ1" s="2">
+        <v>45362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1165,8 +1169,11 @@
       <c r="AI2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1272,8 +1279,11 @@
       <c r="AI3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1379,8 +1389,11 @@
       <c r="AI4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1486,8 +1499,11 @@
       <c r="AI5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1593,8 +1609,11 @@
       <c r="AI6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1700,8 +1719,11 @@
       <c r="AI7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1807,8 +1829,11 @@
       <c r="AI8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1914,8 +1939,11 @@
       <c r="AI9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2021,8 +2049,11 @@
       <c r="AI10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2128,8 +2159,11 @@
       <c r="AI11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2235,8 +2269,11 @@
       <c r="AI12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2342,8 +2379,11 @@
       <c r="AI13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2449,8 +2489,11 @@
       <c r="AI14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2556,8 +2599,11 @@
       <c r="AI15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2663,8 +2709,11 @@
       <c r="AI16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2770,8 +2819,11 @@
       <c r="AI17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2877,8 +2929,11 @@
       <c r="AI18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2984,8 +3039,11 @@
       <c r="AI19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3091,8 +3149,11 @@
       <c r="AI20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3198,8 +3259,11 @@
       <c r="AI21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3305,8 +3369,11 @@
       <c r="AI22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3412,8 +3479,11 @@
       <c r="AI23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3519,8 +3589,11 @@
       <c r="AI24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3626,8 +3699,11 @@
       <c r="AI25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3733,8 +3809,11 @@
       <c r="AI26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3840,8 +3919,11 @@
       <c r="AI27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -3947,11 +4029,14 @@
       <c r="AI28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7454ADEF-4D32-42F4-890E-F7CAB8CCF941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8841DB00-A7E9-4E63-A3B5-0D92729F3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -929,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AJ32"/>
+  <dimension ref="A1:AN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,10 +952,10 @@
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1062,8 +1062,20 @@
       <c r="AJ1" s="2">
         <v>45362</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK1" s="2">
+        <v>45363</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45364</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45365</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>45366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1172,8 +1184,20 @@
       <c r="AJ2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1282,8 +1306,11 @@
       <c r="AJ3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1392,8 +1419,11 @@
       <c r="AJ4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1502,8 +1532,11 @@
       <c r="AJ5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1612,8 +1645,11 @@
       <c r="AJ6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1722,8 +1758,11 @@
       <c r="AJ7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1832,8 +1871,11 @@
       <c r="AJ8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1942,8 +1984,11 @@
       <c r="AJ9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2052,8 +2097,11 @@
       <c r="AJ10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2162,8 +2210,11 @@
       <c r="AJ11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2272,8 +2323,11 @@
       <c r="AJ12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2382,8 +2436,11 @@
       <c r="AJ13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2492,8 +2549,11 @@
       <c r="AJ14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2602,8 +2662,11 @@
       <c r="AJ15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2712,8 +2775,11 @@
       <c r="AJ16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2822,8 +2888,11 @@
       <c r="AJ17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2932,8 +3001,11 @@
       <c r="AJ18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3042,8 +3114,11 @@
       <c r="AJ19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3152,8 +3227,11 @@
       <c r="AJ20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3262,8 +3340,11 @@
       <c r="AJ21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3372,8 +3453,11 @@
       <c r="AJ22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3482,8 +3566,11 @@
       <c r="AJ23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3592,8 +3679,11 @@
       <c r="AJ24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3702,8 +3792,11 @@
       <c r="AJ25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3812,8 +3905,11 @@
       <c r="AJ26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -3922,8 +4018,11 @@
       <c r="AJ27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4032,11 +4131,14 @@
       <c r="AJ28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="AK28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8841DB00-A7E9-4E63-A3B5-0D92729F3438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B75B0-E331-411A-91D7-1E87E2EEDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -935,7 +935,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AK25" sqref="AK25"/>
+      <selection pane="bottomRight" activeCell="AL23" sqref="AL23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,6 +1309,9 @@
       <c r="AK3" t="s">
         <v>3</v>
       </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1422,6 +1425,9 @@
       <c r="AK4" t="s">
         <v>3</v>
       </c>
+      <c r="AL4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1535,6 +1541,9 @@
       <c r="AK5" t="s">
         <v>3</v>
       </c>
+      <c r="AL5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1648,6 +1657,9 @@
       <c r="AK6" t="s">
         <v>3</v>
       </c>
+      <c r="AL6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1761,6 +1773,9 @@
       <c r="AK7" t="s">
         <v>3</v>
       </c>
+      <c r="AL7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1874,6 +1889,9 @@
       <c r="AK8" t="s">
         <v>3</v>
       </c>
+      <c r="AL8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1987,6 +2005,9 @@
       <c r="AK9" t="s">
         <v>3</v>
       </c>
+      <c r="AL9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2100,6 +2121,9 @@
       <c r="AK10" t="s">
         <v>3</v>
       </c>
+      <c r="AL10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2213,6 +2237,9 @@
       <c r="AK11" t="s">
         <v>3</v>
       </c>
+      <c r="AL11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2326,6 +2353,9 @@
       <c r="AK12" t="s">
         <v>3</v>
       </c>
+      <c r="AL12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2439,6 +2469,9 @@
       <c r="AK13" t="s">
         <v>3</v>
       </c>
+      <c r="AL13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2552,6 +2585,9 @@
       <c r="AK14" t="s">
         <v>3</v>
       </c>
+      <c r="AL14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2665,6 +2701,9 @@
       <c r="AK15" t="s">
         <v>3</v>
       </c>
+      <c r="AL15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2778,8 +2817,11 @@
       <c r="AK16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2891,8 +2933,11 @@
       <c r="AK17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3004,8 +3049,11 @@
       <c r="AK18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3117,8 +3165,11 @@
       <c r="AK19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3230,8 +3281,11 @@
       <c r="AK20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3343,8 +3397,11 @@
       <c r="AK21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3456,8 +3513,11 @@
       <c r="AK22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3569,8 +3629,11 @@
       <c r="AK23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3682,8 +3745,11 @@
       <c r="AK24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3795,8 +3861,11 @@
       <c r="AK25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3908,8 +3977,11 @@
       <c r="AK26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4021,8 +4093,11 @@
       <c r="AK27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4134,11 +4209,14 @@
       <c r="AK28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AL28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B75B0-E331-411A-91D7-1E87E2EEDF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041D169C-AA1A-4924-8320-21086C530605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -929,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AL23" sqref="AL23"/>
+      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1312,6 +1312,12 @@
       <c r="AL3" t="s">
         <v>3</v>
       </c>
+      <c r="AM3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1428,6 +1434,12 @@
       <c r="AL4" t="s">
         <v>3</v>
       </c>
+      <c r="AM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1544,6 +1556,12 @@
       <c r="AL5" t="s">
         <v>3</v>
       </c>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1660,6 +1678,12 @@
       <c r="AL6" t="s">
         <v>3</v>
       </c>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1776,6 +1800,12 @@
       <c r="AL7" t="s">
         <v>4</v>
       </c>
+      <c r="AM7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -1892,6 +1922,12 @@
       <c r="AL8" t="s">
         <v>3</v>
       </c>
+      <c r="AM8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2008,6 +2044,12 @@
       <c r="AL9" t="s">
         <v>3</v>
       </c>
+      <c r="AM9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2124,6 +2166,12 @@
       <c r="AL10" t="s">
         <v>4</v>
       </c>
+      <c r="AM10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2240,6 +2288,12 @@
       <c r="AL11" t="s">
         <v>3</v>
       </c>
+      <c r="AM11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2356,6 +2410,12 @@
       <c r="AL12" t="s">
         <v>3</v>
       </c>
+      <c r="AM12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2472,6 +2532,12 @@
       <c r="AL13" t="s">
         <v>3</v>
       </c>
+      <c r="AM13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2588,6 +2654,12 @@
       <c r="AL14" t="s">
         <v>3</v>
       </c>
+      <c r="AM14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2704,6 +2776,12 @@
       <c r="AL15" t="s">
         <v>3</v>
       </c>
+      <c r="AM15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2820,8 +2898,14 @@
       <c r="AL16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2936,8 +3020,14 @@
       <c r="AL17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3052,8 +3142,14 @@
       <c r="AL18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3168,8 +3264,14 @@
       <c r="AL19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3284,8 +3386,14 @@
       <c r="AL20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3400,8 +3508,14 @@
       <c r="AL21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3516,8 +3630,14 @@
       <c r="AL22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3632,8 +3752,14 @@
       <c r="AL23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3748,8 +3874,15 @@
       <c r="AL24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ24" s="3"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3864,8 +3997,14 @@
       <c r="AL25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3980,8 +4119,14 @@
       <c r="AL26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4096,8 +4241,14 @@
       <c r="AL27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4212,11 +4363,17 @@
       <c r="AL28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041D169C-AA1A-4924-8320-21086C530605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62EBD6-0B94-4F40-9002-11DA54FBAEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -929,13 +929,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AR32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AQ24" sqref="AQ24"/>
+      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,9 +953,10 @@
     <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="36" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1074,8 +1075,11 @@
       <c r="AN1" s="2">
         <v>45366</v>
       </c>
-    </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR1" s="2">
+        <v>45372</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1196,8 +1200,11 @@
       <c r="AN2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1318,8 +1325,11 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1440,8 +1450,11 @@
       <c r="AN4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1562,8 +1575,11 @@
       <c r="AN5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1684,8 +1700,11 @@
       <c r="AN6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1806,8 +1825,11 @@
       <c r="AN7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1928,8 +1950,11 @@
       <c r="AN8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2050,8 +2075,11 @@
       <c r="AN9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2172,8 +2200,11 @@
       <c r="AN10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2294,8 +2325,11 @@
       <c r="AN11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2416,8 +2450,11 @@
       <c r="AN12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2538,8 +2575,11 @@
       <c r="AN13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2660,8 +2700,11 @@
       <c r="AN14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2782,8 +2825,11 @@
       <c r="AN15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+      <c r="AR15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2904,8 +2950,11 @@
       <c r="AN16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3026,8 +3075,11 @@
       <c r="AN17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3148,8 +3200,11 @@
       <c r="AN18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3270,8 +3325,11 @@
       <c r="AN19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3392,8 +3450,11 @@
       <c r="AN20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3514,8 +3575,11 @@
       <c r="AN21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3636,8 +3700,11 @@
       <c r="AN22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3758,8 +3825,11 @@
       <c r="AN23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3881,8 +3951,11 @@
         <v>3</v>
       </c>
       <c r="AQ24" s="3"/>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4003,8 +4076,11 @@
       <c r="AN25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4125,8 +4201,11 @@
       <c r="AN26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4247,8 +4326,11 @@
       <c r="AN27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4369,11 +4451,14 @@
       <c r="AN28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E62EBD6-0B94-4F40-9002-11DA54FBAEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F38B0-DCDB-4214-A019-7E2DD22419D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>INDIMO</t>
   </si>
 </sst>
 </file>
@@ -929,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AR32"/>
+  <dimension ref="A1:AT32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AO7" sqref="AO7"/>
+      <selection pane="bottomRight" activeCell="AS9" sqref="AS9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,11 +955,10 @@
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="40" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="46" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1075,11 +1077,26 @@
       <c r="AN1" s="2">
         <v>45366</v>
       </c>
+      <c r="AO1" s="2">
+        <v>45369</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45370</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>45371</v>
+      </c>
       <c r="AR1" s="2">
         <v>45372</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS1" s="2">
+        <v>45373</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1200,11 +1217,26 @@
       <c r="AN2" t="s">
         <v>50</v>
       </c>
+      <c r="AO2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>49</v>
+      </c>
       <c r="AR2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1325,11 +1357,26 @@
       <c r="AN3" t="s">
         <v>3</v>
       </c>
+      <c r="AO3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>3</v>
+      </c>
       <c r="AR3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1450,11 +1497,26 @@
       <c r="AN4" t="s">
         <v>3</v>
       </c>
+      <c r="AO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>3</v>
+      </c>
       <c r="AR4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1575,11 +1637,26 @@
       <c r="AN5" t="s">
         <v>4</v>
       </c>
+      <c r="AO5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>3</v>
+      </c>
       <c r="AR5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1700,11 +1777,26 @@
       <c r="AN6" t="s">
         <v>3</v>
       </c>
+      <c r="AO6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>4</v>
+      </c>
       <c r="AR6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1825,11 +1917,26 @@
       <c r="AN7" t="s">
         <v>3</v>
       </c>
+      <c r="AO7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>3</v>
+      </c>
       <c r="AR7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -1950,11 +2057,26 @@
       <c r="AN8" t="s">
         <v>3</v>
       </c>
+      <c r="AO8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>3</v>
+      </c>
       <c r="AR8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2075,11 +2197,26 @@
       <c r="AN9" t="s">
         <v>3</v>
       </c>
+      <c r="AO9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>3</v>
+      </c>
       <c r="AR9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2200,11 +2337,26 @@
       <c r="AN10" t="s">
         <v>3</v>
       </c>
+      <c r="AO10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>3</v>
+      </c>
       <c r="AR10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2325,11 +2477,26 @@
       <c r="AN11" t="s">
         <v>3</v>
       </c>
+      <c r="AO11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>3</v>
+      </c>
       <c r="AR11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2450,11 +2617,26 @@
       <c r="AN12" t="s">
         <v>3</v>
       </c>
+      <c r="AO12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>3</v>
+      </c>
       <c r="AR12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2575,11 +2757,26 @@
       <c r="AN13" t="s">
         <v>3</v>
       </c>
+      <c r="AO13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>3</v>
+      </c>
       <c r="AR13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2700,11 +2897,26 @@
       <c r="AN14" t="s">
         <v>3</v>
       </c>
+      <c r="AO14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>4</v>
+      </c>
       <c r="AR14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -2825,11 +3037,26 @@
       <c r="AN15" t="s">
         <v>3</v>
       </c>
+      <c r="AO15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>3</v>
+      </c>
       <c r="AR15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2950,11 +3177,26 @@
       <c r="AN16" t="s">
         <v>4</v>
       </c>
+      <c r="AO16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>3</v>
+      </c>
       <c r="AR16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3075,11 +3317,26 @@
       <c r="AN17" t="s">
         <v>3</v>
       </c>
+      <c r="AO17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>4</v>
+      </c>
       <c r="AR17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3200,11 +3457,26 @@
       <c r="AN18" t="s">
         <v>4</v>
       </c>
+      <c r="AO18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>3</v>
+      </c>
       <c r="AR18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3325,11 +3597,26 @@
       <c r="AN19" t="s">
         <v>3</v>
       </c>
+      <c r="AO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>3</v>
+      </c>
       <c r="AR19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3450,11 +3737,26 @@
       <c r="AN20" t="s">
         <v>4</v>
       </c>
+      <c r="AO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>4</v>
+      </c>
       <c r="AR20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3575,11 +3877,26 @@
       <c r="AN21" t="s">
         <v>3</v>
       </c>
+      <c r="AO21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>3</v>
+      </c>
       <c r="AR21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -3700,11 +4017,26 @@
       <c r="AN22" t="s">
         <v>3</v>
       </c>
+      <c r="AO22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>4</v>
+      </c>
       <c r="AR22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -3825,11 +4157,26 @@
       <c r="AN23" t="s">
         <v>3</v>
       </c>
+      <c r="AO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>4</v>
+      </c>
       <c r="AR23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3950,12 +4297,26 @@
       <c r="AN24" t="s">
         <v>3</v>
       </c>
-      <c r="AQ24" s="3"/>
+      <c r="AO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>3</v>
+      </c>
       <c r="AR24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4076,11 +4437,26 @@
       <c r="AN25" t="s">
         <v>3</v>
       </c>
+      <c r="AO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>3</v>
+      </c>
       <c r="AR25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4201,11 +4577,26 @@
       <c r="AN26" t="s">
         <v>3</v>
       </c>
+      <c r="AO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>3</v>
+      </c>
       <c r="AR26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4326,11 +4717,26 @@
       <c r="AN27" t="s">
         <v>3</v>
       </c>
+      <c r="AO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>4</v>
+      </c>
       <c r="AR27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4451,14 +4857,29 @@
       <c r="AN28" t="s">
         <v>4</v>
       </c>
+      <c r="AO28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>3</v>
+      </c>
       <c r="AR28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AS28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912F38B0-DCDB-4214-A019-7E2DD22419D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C760FC-940E-49E6-A230-DA353BAEE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AT32"/>
+  <dimension ref="A1:AW32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AS9" sqref="AS9"/>
+      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,10 +955,14 @@
     <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="46" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1095,8 +1099,17 @@
       <c r="AT1" s="2">
         <v>45376</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU1" s="2">
+        <v>45377</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>45378</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>45379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1235,8 +1248,17 @@
       <c r="AT2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1375,8 +1397,17 @@
       <c r="AT3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1515,8 +1546,17 @@
       <c r="AT4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1655,8 +1695,17 @@
       <c r="AT5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1795,8 +1844,17 @@
       <c r="AT6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -1935,8 +1993,17 @@
       <c r="AT7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2075,8 +2142,17 @@
       <c r="AT8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2215,8 +2291,17 @@
       <c r="AT9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2355,8 +2440,17 @@
       <c r="AT10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2495,8 +2589,17 @@
       <c r="AT11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2635,8 +2738,17 @@
       <c r="AT12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2775,8 +2887,17 @@
       <c r="AT13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2915,8 +3036,17 @@
       <c r="AT14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3055,8 +3185,17 @@
       <c r="AT15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3195,8 +3334,17 @@
       <c r="AT16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3335,8 +3483,17 @@
       <c r="AT17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3475,8 +3632,17 @@
       <c r="AT18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3615,8 +3781,17 @@
       <c r="AT19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3755,8 +3930,17 @@
       <c r="AT20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -3895,8 +4079,17 @@
       <c r="AT21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4035,8 +4228,17 @@
       <c r="AT22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4175,8 +4377,17 @@
       <c r="AT23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4315,8 +4526,17 @@
       <c r="AT24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4455,8 +4675,17 @@
       <c r="AT25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4595,8 +4824,17 @@
       <c r="AT26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4735,8 +4973,17 @@
       <c r="AT27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -4875,11 +5122,20 @@
       <c r="AT28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="AU28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C760FC-940E-49E6-A230-DA353BAEE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DC513-B393-40F9-92B3-B5E9516FF4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW32"/>
+  <dimension ref="A1:BA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF30" sqref="AF30"/>
+      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,10 +959,11 @@
     <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="52" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1108,8 +1109,20 @@
       <c r="AW1" s="2">
         <v>45379</v>
       </c>
-    </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX1" s="2">
+        <v>45380</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>45381</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>45382</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>45383</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1255,10 +1268,22 @@
         <v>49</v>
       </c>
       <c r="AW2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1406,8 +1431,11 @@
       <c r="AW3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1555,8 +1583,11 @@
       <c r="AW4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1704,8 +1735,11 @@
       <c r="AW5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1853,8 +1887,11 @@
       <c r="AW6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2002,8 +2039,11 @@
       <c r="AW7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2151,8 +2191,11 @@
       <c r="AW8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2300,8 +2343,11 @@
       <c r="AW9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2449,8 +2495,11 @@
       <c r="AW10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2598,8 +2647,11 @@
       <c r="AW11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2747,8 +2799,11 @@
       <c r="AW12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2896,8 +2951,11 @@
       <c r="AW13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3045,8 +3103,11 @@
       <c r="AW14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3194,8 +3255,11 @@
       <c r="AW15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3343,8 +3407,11 @@
       <c r="AW16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3492,8 +3559,11 @@
       <c r="AW17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3641,8 +3711,11 @@
       <c r="AW18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3790,8 +3863,11 @@
       <c r="AW19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3939,8 +4015,11 @@
       <c r="AW20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4088,8 +4167,11 @@
       <c r="AW21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4237,8 +4319,11 @@
       <c r="AW22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4386,8 +4471,11 @@
       <c r="AW23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4535,8 +4623,11 @@
       <c r="AW24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4684,8 +4775,11 @@
       <c r="AW25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4833,8 +4927,11 @@
       <c r="AW26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -4982,8 +5079,11 @@
       <c r="AW27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5131,11 +5231,14 @@
       <c r="AW28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+      <c r="AX28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1DC513-B393-40F9-92B3-B5E9516FF4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7797F39-C39D-4D91-B709-FDA3C848BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BA32"/>
+  <dimension ref="A1:BB32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AX27" sqref="AX27"/>
+      <selection pane="bottomRight" activeCell="AZ27" sqref="AZ27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,11 +959,11 @@
     <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="52" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1110,19 +1110,22 @@
         <v>45379</v>
       </c>
       <c r="AX1" s="2">
-        <v>45380</v>
+        <v>45383</v>
       </c>
       <c r="AY1" s="2">
-        <v>45381</v>
+        <v>45384</v>
       </c>
       <c r="AZ1" s="2">
-        <v>45382</v>
+        <v>45385</v>
       </c>
       <c r="BA1" s="2">
-        <v>45383</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+        <v>45386</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>45387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1271,19 +1274,22 @@
         <v>47</v>
       </c>
       <c r="AX2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AY2" t="s">
         <v>48</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>49</v>
       </c>
       <c r="AZ2" t="s">
         <v>49</v>
       </c>
       <c r="BA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1434,8 +1440,14 @@
       <c r="AX3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1586,8 +1598,14 @@
       <c r="AX4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1738,8 +1756,14 @@
       <c r="AX5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1890,8 +1914,14 @@
       <c r="AX6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2042,8 +2072,14 @@
       <c r="AX7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2230,14 @@
       <c r="AX8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2346,8 +2388,14 @@
       <c r="AX9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2498,8 +2546,14 @@
       <c r="AX10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2648,10 +2702,16 @@
         <v>3</v>
       </c>
       <c r="AX11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2802,8 +2862,14 @@
       <c r="AX12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2954,8 +3020,14 @@
       <c r="AX13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3106,8 +3178,14 @@
       <c r="AX14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3258,8 +3336,14 @@
       <c r="AX15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="AY15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3410,8 +3494,14 @@
       <c r="AX16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3562,8 +3652,14 @@
       <c r="AX17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3714,8 +3810,14 @@
       <c r="AX18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3866,8 +3968,14 @@
       <c r="AX19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4018,8 +4126,14 @@
       <c r="AX20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4170,8 +4284,14 @@
       <c r="AX21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4322,8 +4442,14 @@
       <c r="AX22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4474,8 +4600,14 @@
       <c r="AX23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4626,8 +4758,14 @@
       <c r="AX24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4778,8 +4916,14 @@
       <c r="AX25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -4930,8 +5074,14 @@
       <c r="AX26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5082,8 +5232,14 @@
       <c r="AX27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5234,11 +5390,17 @@
       <c r="AX28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="AY28" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7797F39-C39D-4D91-B709-FDA3C848BC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E276FA-35B1-42DD-803C-ACDEAB5F8780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BB32"/>
+  <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AZ27" sqref="AZ27"/>
+      <selection pane="bottomRight" activeCell="BB20" sqref="BB20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1124,8 +1124,11 @@
       <c r="BB1" s="2">
         <v>45387</v>
       </c>
-    </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC1" s="2">
+        <v>45390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1288,8 +1291,11 @@
       <c r="BB2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BC2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1446,8 +1452,14 @@
       <c r="AZ3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1604,8 +1616,14 @@
       <c r="AZ4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1762,8 +1780,14 @@
       <c r="AZ5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1920,8 +1944,14 @@
       <c r="AZ6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2078,8 +2108,14 @@
       <c r="AZ7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2236,8 +2272,14 @@
       <c r="AZ8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2394,8 +2436,14 @@
       <c r="AZ9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2552,8 +2600,14 @@
       <c r="AZ10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2710,8 +2764,14 @@
       <c r="AZ11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2868,8 +2928,14 @@
       <c r="AZ12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3026,8 +3092,14 @@
       <c r="AZ13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3184,8 +3256,14 @@
       <c r="AZ14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3342,8 +3420,14 @@
       <c r="AZ15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="BB15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3500,8 +3584,14 @@
       <c r="AZ16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3658,8 +3748,14 @@
       <c r="AZ17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3816,8 +3912,14 @@
       <c r="AZ18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3974,8 +4076,14 @@
       <c r="AZ19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4132,8 +4240,14 @@
       <c r="AZ20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4290,8 +4404,14 @@
       <c r="AZ21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4448,8 +4568,14 @@
       <c r="AZ22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4606,8 +4732,14 @@
       <c r="AZ23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4764,8 +4896,14 @@
       <c r="AZ24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -4922,8 +5060,14 @@
       <c r="AZ25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5080,8 +5224,14 @@
       <c r="AZ26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5238,8 +5388,14 @@
       <c r="AZ27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5396,11 +5552,17 @@
       <c r="AZ28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="BB28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E276FA-35B1-42DD-803C-ACDEAB5F8780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09F73C-C4F4-4440-BC46-54F2FCBB78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,13 +933,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BC32"/>
+  <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BB20" sqref="BB20"/>
+      <selection pane="bottomRight" activeCell="BD26" sqref="BD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +964,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1127,8 +1128,20 @@
       <c r="BC1" s="2">
         <v>45390</v>
       </c>
-    </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD1" s="2">
+        <v>45391</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>45392</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>45393</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>45394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1294,8 +1307,20 @@
       <c r="BC2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1452,14 +1477,20 @@
       <c r="AZ3" t="s">
         <v>3</v>
       </c>
+      <c r="BA3" t="s">
+        <v>3</v>
+      </c>
       <c r="BB3" t="s">
         <v>3</v>
       </c>
       <c r="BC3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1616,14 +1647,20 @@
       <c r="AZ4" t="s">
         <v>3</v>
       </c>
+      <c r="BA4" t="s">
+        <v>3</v>
+      </c>
       <c r="BB4" t="s">
         <v>3</v>
       </c>
       <c r="BC4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1780,14 +1817,20 @@
       <c r="AZ5" t="s">
         <v>3</v>
       </c>
+      <c r="BA5" t="s">
+        <v>3</v>
+      </c>
       <c r="BB5" t="s">
         <v>3</v>
       </c>
       <c r="BC5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -1944,14 +1987,20 @@
       <c r="AZ6" t="s">
         <v>4</v>
       </c>
+      <c r="BA6" t="s">
+        <v>3</v>
+      </c>
       <c r="BB6" t="s">
         <v>3</v>
       </c>
       <c r="BC6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2108,14 +2157,20 @@
       <c r="AZ7" t="s">
         <v>3</v>
       </c>
+      <c r="BA7" t="s">
+        <v>3</v>
+      </c>
       <c r="BB7" t="s">
         <v>3</v>
       </c>
       <c r="BC7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2272,14 +2327,20 @@
       <c r="AZ8" t="s">
         <v>3</v>
       </c>
+      <c r="BA8" t="s">
+        <v>3</v>
+      </c>
       <c r="BB8" t="s">
         <v>3</v>
       </c>
       <c r="BC8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2436,14 +2497,20 @@
       <c r="AZ9" t="s">
         <v>3</v>
       </c>
+      <c r="BA9" t="s">
+        <v>3</v>
+      </c>
       <c r="BB9" t="s">
         <v>3</v>
       </c>
       <c r="BC9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2600,14 +2667,20 @@
       <c r="AZ10" t="s">
         <v>3</v>
       </c>
+      <c r="BA10" t="s">
+        <v>3</v>
+      </c>
       <c r="BB10" t="s">
         <v>3</v>
       </c>
       <c r="BC10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2764,14 +2837,20 @@
       <c r="AZ11" t="s">
         <v>3</v>
       </c>
+      <c r="BA11" t="s">
+        <v>3</v>
+      </c>
       <c r="BB11" t="s">
         <v>3</v>
       </c>
       <c r="BC11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2928,14 +3007,20 @@
       <c r="AZ12" t="s">
         <v>3</v>
       </c>
+      <c r="BA12" t="s">
+        <v>3</v>
+      </c>
       <c r="BB12" t="s">
         <v>3</v>
       </c>
       <c r="BC12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3092,14 +3177,20 @@
       <c r="AZ13" t="s">
         <v>3</v>
       </c>
+      <c r="BA13" t="s">
+        <v>3</v>
+      </c>
       <c r="BB13" t="s">
         <v>3</v>
       </c>
       <c r="BC13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3256,14 +3347,20 @@
       <c r="AZ14" t="s">
         <v>3</v>
       </c>
+      <c r="BA14" t="s">
+        <v>3</v>
+      </c>
       <c r="BB14" t="s">
         <v>3</v>
       </c>
       <c r="BC14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3420,14 +3517,20 @@
       <c r="AZ15" t="s">
         <v>3</v>
       </c>
+      <c r="BA15" t="s">
+        <v>3</v>
+      </c>
       <c r="BB15" t="s">
         <v>4</v>
       </c>
       <c r="BC15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3584,6 +3687,9 @@
       <c r="AZ16" t="s">
         <v>3</v>
       </c>
+      <c r="BA16" t="s">
+        <v>3</v>
+      </c>
       <c r="BB16" t="s">
         <v>3</v>
       </c>
@@ -3591,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3748,6 +3854,9 @@
       <c r="AZ17" t="s">
         <v>3</v>
       </c>
+      <c r="BA17" t="s">
+        <v>3</v>
+      </c>
       <c r="BB17" t="s">
         <v>3</v>
       </c>
@@ -3755,7 +3864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3912,14 +4021,20 @@
       <c r="AZ18" t="s">
         <v>4</v>
       </c>
+      <c r="BA18" t="s">
+        <v>3</v>
+      </c>
       <c r="BB18" t="s">
         <v>3</v>
       </c>
       <c r="BC18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4076,14 +4191,20 @@
       <c r="AZ19" t="s">
         <v>3</v>
       </c>
+      <c r="BA19" t="s">
+        <v>3</v>
+      </c>
       <c r="BB19" t="s">
         <v>3</v>
       </c>
       <c r="BC19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4240,14 +4361,20 @@
       <c r="AZ20" t="s">
         <v>4</v>
       </c>
-      <c r="BB20" s="3" t="s">
+      <c r="BA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BB20" s="5" t="s">
         <v>4</v>
       </c>
       <c r="BC20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4404,14 +4531,20 @@
       <c r="AZ21" t="s">
         <v>3</v>
       </c>
+      <c r="BA21" t="s">
+        <v>3</v>
+      </c>
       <c r="BB21" t="s">
         <v>3</v>
       </c>
       <c r="BC21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4568,14 +4701,20 @@
       <c r="AZ22" t="s">
         <v>3</v>
       </c>
+      <c r="BA22" t="s">
+        <v>3</v>
+      </c>
       <c r="BB22" t="s">
         <v>3</v>
       </c>
       <c r="BC22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4732,14 +4871,20 @@
       <c r="AZ23" t="s">
         <v>3</v>
       </c>
+      <c r="BA23" t="s">
+        <v>3</v>
+      </c>
       <c r="BB23" t="s">
         <v>4</v>
       </c>
       <c r="BC23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -4896,14 +5041,20 @@
       <c r="AZ24" t="s">
         <v>3</v>
       </c>
+      <c r="BA24" t="s">
+        <v>3</v>
+      </c>
       <c r="BB24" t="s">
         <v>3</v>
       </c>
       <c r="BC24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5060,14 +5211,20 @@
       <c r="AZ25" t="s">
         <v>3</v>
       </c>
+      <c r="BA25" t="s">
+        <v>3</v>
+      </c>
       <c r="BB25" t="s">
         <v>3</v>
       </c>
       <c r="BC25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5224,14 +5381,20 @@
       <c r="AZ26" t="s">
         <v>3</v>
       </c>
+      <c r="BA26" t="s">
+        <v>3</v>
+      </c>
       <c r="BB26" t="s">
         <v>3</v>
       </c>
       <c r="BC26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5388,14 +5551,20 @@
       <c r="AZ27" t="s">
         <v>4</v>
       </c>
+      <c r="BA27" t="s">
+        <v>3</v>
+      </c>
       <c r="BB27" t="s">
         <v>3</v>
       </c>
       <c r="BC27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5552,17 +5721,23 @@
       <c r="AZ28" t="s">
         <v>3</v>
       </c>
+      <c r="BA28" t="s">
+        <v>3</v>
+      </c>
       <c r="BB28" t="s">
         <v>3</v>
       </c>
       <c r="BC28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="BD28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A09F73C-C4F4-4440-BC46-54F2FCBB78D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8E7D1-4712-4DA6-9286-80C144072D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,7 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,7 +938,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD26" sqref="BD26"/>
+      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1489,6 +1488,9 @@
       <c r="BD3" t="s">
         <v>3</v>
       </c>
+      <c r="BE3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1659,6 +1661,9 @@
       <c r="BD4" t="s">
         <v>3</v>
       </c>
+      <c r="BE4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1829,6 +1834,9 @@
       <c r="BD5" t="s">
         <v>3</v>
       </c>
+      <c r="BE5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1999,6 +2007,9 @@
       <c r="BD6" t="s">
         <v>3</v>
       </c>
+      <c r="BE6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2169,6 +2180,9 @@
       <c r="BD7" t="s">
         <v>3</v>
       </c>
+      <c r="BE7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2339,6 +2353,9 @@
       <c r="BD8" t="s">
         <v>3</v>
       </c>
+      <c r="BE8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2509,6 +2526,9 @@
       <c r="BD9" t="s">
         <v>3</v>
       </c>
+      <c r="BE9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2679,6 +2699,9 @@
       <c r="BD10" t="s">
         <v>3</v>
       </c>
+      <c r="BE10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -2849,6 +2872,9 @@
       <c r="BD11" t="s">
         <v>3</v>
       </c>
+      <c r="BE11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3019,6 +3045,9 @@
       <c r="BD12" t="s">
         <v>3</v>
       </c>
+      <c r="BE12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3189,6 +3218,9 @@
       <c r="BD13" t="s">
         <v>3</v>
       </c>
+      <c r="BE13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3359,6 +3391,9 @@
       <c r="BD14" t="s">
         <v>3</v>
       </c>
+      <c r="BE14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3529,6 +3564,9 @@
       <c r="BD15" t="s">
         <v>3</v>
       </c>
+      <c r="BE15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3696,8 +3734,14 @@
       <c r="BC16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3863,8 +3907,14 @@
       <c r="BC17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4033,8 +4083,11 @@
       <c r="BD18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4203,8 +4256,11 @@
       <c r="BD19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4364,7 +4420,7 @@
       <c r="BA20" t="s">
         <v>4</v>
       </c>
-      <c r="BB20" s="5" t="s">
+      <c r="BB20" t="s">
         <v>4</v>
       </c>
       <c r="BC20" t="s">
@@ -4373,8 +4429,11 @@
       <c r="BD20" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4543,8 +4602,11 @@
       <c r="BD21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4713,8 +4775,11 @@
       <c r="BD22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4883,8 +4948,11 @@
       <c r="BD23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5053,8 +5121,11 @@
       <c r="BD24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5223,8 +5294,11 @@
       <c r="BD25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5393,8 +5467,11 @@
       <c r="BD26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5563,8 +5640,11 @@
       <c r="BD27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5733,11 +5813,14 @@
       <c r="BD28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BE28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8E7D1-4712-4DA6-9286-80C144072D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF38ED-B478-402A-8979-DAE3F4C8E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -289,9 +278,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,7 +318,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -435,7 +424,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,7 +566,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -938,7 +927,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="BD25" sqref="BD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4427,7 +4416,7 @@
         <v>4</v>
       </c>
       <c r="BD20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE20" t="s">
         <v>4</v>
@@ -5292,7 +5281,7 @@
         <v>4</v>
       </c>
       <c r="BD25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BE25" t="s">
         <v>4</v>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DF38ED-B478-402A-8979-DAE3F4C8E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F4AE5A-D4B7-46E3-8255-02A546F3A33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="52">
   <si>
     <t>Alunos</t>
   </si>
@@ -179,9 +179,6 @@
   </si>
   <si>
     <t>INDMO</t>
-  </si>
-  <si>
-    <t>f</t>
   </si>
   <si>
     <t>INDIMO</t>
@@ -924,10 +921,10 @@
   <dimension ref="A1:BG32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BD25" sqref="BD25"/>
+      <selection pane="bottomRight" activeCell="AV1" sqref="AV1:AW1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,7 +945,9 @@
     <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="41" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="7.28515625" customWidth="1"/>
+    <col min="49" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1263,7 +1262,7 @@
         <v>49</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AT2" t="s">
         <v>47</v>
@@ -1275,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="AW2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AX2" t="s">
         <v>47</v>
@@ -2086,10 +2085,10 @@
         <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AD7" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="s">
         <v>3</v>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F8E7D1-4712-4DA6-9286-80C144072D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE7F07-E70F-4BBA-BAD3-26E9BEE6FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1558" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BG32"/>
+  <dimension ref="A1:BH32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AD3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AM12" sqref="AM12"/>
+      <selection pane="bottomRight" activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,8 +1139,11 @@
       <c r="BG1" s="2">
         <v>45394</v>
       </c>
-    </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH1" s="2">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1318,8 +1321,11 @@
       <c r="BG2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BH2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1491,8 +1497,14 @@
       <c r="BE3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1664,8 +1676,14 @@
       <c r="BE4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1837,8 +1855,14 @@
       <c r="BE5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2010,8 +2034,14 @@
       <c r="BE6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2183,8 +2213,14 @@
       <c r="BE7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2356,8 +2392,14 @@
       <c r="BE8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2529,8 +2571,14 @@
       <c r="BE9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2702,8 +2750,14 @@
       <c r="BE10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2875,8 +2929,14 @@
       <c r="BE11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3048,8 +3108,14 @@
       <c r="BE12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3221,8 +3287,14 @@
       <c r="BE13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG13" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3394,8 +3466,14 @@
       <c r="BE14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3567,8 +3645,14 @@
       <c r="BE15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BG15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3740,8 +3824,14 @@
       <c r="BE16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -3913,8 +4003,14 @@
       <c r="BE17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4086,8 +4182,14 @@
       <c r="BE18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG18" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4259,8 +4361,14 @@
       <c r="BE19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4432,8 +4540,14 @@
       <c r="BE20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4605,8 +4719,14 @@
       <c r="BE21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4778,8 +4898,14 @@
       <c r="BE22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -4951,8 +5077,14 @@
       <c r="BE23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5124,8 +5256,14 @@
       <c r="BE24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5297,8 +5435,14 @@
       <c r="BE25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5470,8 +5614,14 @@
       <c r="BE26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5643,8 +5793,14 @@
       <c r="BE27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5816,11 +5972,17 @@
       <c r="BE28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="BG28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AE7F07-E70F-4BBA-BAD3-26E9BEE6FC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0241C4C-12BF-400F-B233-297CD37F1050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,13 +933,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BH32"/>
+  <dimension ref="A1:BL32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB28" sqref="AB28"/>
+      <selection pane="bottomRight" activeCell="BF28" sqref="BF28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +964,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1142,8 +1143,20 @@
       <c r="BH1" s="2">
         <v>45397</v>
       </c>
-    </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI1" s="2">
+        <v>45398</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>45399</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>45400</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1324,8 +1337,20 @@
       <c r="BH2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1497,14 +1522,20 @@
       <c r="BE3" t="s">
         <v>3</v>
       </c>
+      <c r="BF3" t="s">
+        <v>3</v>
+      </c>
       <c r="BG3" t="s">
         <v>3</v>
       </c>
       <c r="BH3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1676,14 +1707,20 @@
       <c r="BE4" t="s">
         <v>3</v>
       </c>
+      <c r="BF4" t="s">
+        <v>3</v>
+      </c>
       <c r="BG4" t="s">
         <v>3</v>
       </c>
       <c r="BH4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1855,14 +1892,20 @@
       <c r="BE5" t="s">
         <v>3</v>
       </c>
+      <c r="BF5" t="s">
+        <v>3</v>
+      </c>
       <c r="BG5" t="s">
         <v>3</v>
       </c>
       <c r="BH5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2034,14 +2077,20 @@
       <c r="BE6" t="s">
         <v>4</v>
       </c>
+      <c r="BF6" t="s">
+        <v>3</v>
+      </c>
       <c r="BG6" t="s">
         <v>4</v>
       </c>
       <c r="BH6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2213,14 +2262,20 @@
       <c r="BE7" t="s">
         <v>3</v>
       </c>
+      <c r="BF7" t="s">
+        <v>3</v>
+      </c>
       <c r="BG7" t="s">
         <v>3</v>
       </c>
       <c r="BH7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2392,14 +2447,20 @@
       <c r="BE8" t="s">
         <v>3</v>
       </c>
+      <c r="BF8" t="s">
+        <v>3</v>
+      </c>
       <c r="BG8" t="s">
         <v>3</v>
       </c>
       <c r="BH8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2571,14 +2632,20 @@
       <c r="BE9" t="s">
         <v>3</v>
       </c>
+      <c r="BF9" t="s">
+        <v>3</v>
+      </c>
       <c r="BG9" t="s">
         <v>3</v>
       </c>
       <c r="BH9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2750,14 +2817,20 @@
       <c r="BE10" t="s">
         <v>3</v>
       </c>
+      <c r="BF10" t="s">
+        <v>3</v>
+      </c>
       <c r="BG10" t="s">
         <v>3</v>
       </c>
       <c r="BH10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2929,14 +3002,20 @@
       <c r="BE11" t="s">
         <v>3</v>
       </c>
+      <c r="BF11" t="s">
+        <v>3</v>
+      </c>
       <c r="BG11" t="s">
         <v>3</v>
       </c>
       <c r="BH11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3108,14 +3187,20 @@
       <c r="BE12" t="s">
         <v>3</v>
       </c>
+      <c r="BF12" t="s">
+        <v>3</v>
+      </c>
       <c r="BG12" t="s">
         <v>3</v>
       </c>
       <c r="BH12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3287,14 +3372,20 @@
       <c r="BE13" t="s">
         <v>3</v>
       </c>
+      <c r="BF13" t="s">
+        <v>3</v>
+      </c>
       <c r="BG13" t="s">
         <v>4</v>
       </c>
       <c r="BH13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3466,14 +3557,20 @@
       <c r="BE14" t="s">
         <v>3</v>
       </c>
+      <c r="BF14" t="s">
+        <v>3</v>
+      </c>
       <c r="BG14" t="s">
         <v>3</v>
       </c>
       <c r="BH14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3645,14 +3742,20 @@
       <c r="BE15" t="s">
         <v>3</v>
       </c>
+      <c r="BF15" t="s">
+        <v>3</v>
+      </c>
       <c r="BG15" t="s">
         <v>4</v>
       </c>
       <c r="BH15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3824,14 +3927,20 @@
       <c r="BE16" t="s">
         <v>3</v>
       </c>
+      <c r="BF16" t="s">
+        <v>3</v>
+      </c>
       <c r="BG16" t="s">
         <v>3</v>
       </c>
       <c r="BH16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4003,14 +4112,20 @@
       <c r="BE17" t="s">
         <v>3</v>
       </c>
+      <c r="BF17" t="s">
+        <v>3</v>
+      </c>
       <c r="BG17" t="s">
         <v>3</v>
       </c>
       <c r="BH17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4182,14 +4297,20 @@
       <c r="BE18" t="s">
         <v>3</v>
       </c>
+      <c r="BF18" t="s">
+        <v>3</v>
+      </c>
       <c r="BG18" t="s">
         <v>4</v>
       </c>
       <c r="BH18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4361,14 +4482,20 @@
       <c r="BE19" t="s">
         <v>3</v>
       </c>
+      <c r="BF19" t="s">
+        <v>3</v>
+      </c>
       <c r="BG19" t="s">
         <v>3</v>
       </c>
       <c r="BH19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4535,19 +4662,25 @@
         <v>4</v>
       </c>
       <c r="BD20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BE20" t="s">
         <v>4</v>
       </c>
+      <c r="BF20" t="s">
+        <v>4</v>
+      </c>
       <c r="BG20" t="s">
         <v>4</v>
       </c>
       <c r="BH20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4719,14 +4852,20 @@
       <c r="BE21" t="s">
         <v>3</v>
       </c>
+      <c r="BF21" t="s">
+        <v>3</v>
+      </c>
       <c r="BG21" t="s">
         <v>3</v>
       </c>
       <c r="BH21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -4898,14 +5037,20 @@
       <c r="BE22" t="s">
         <v>3</v>
       </c>
+      <c r="BF22" t="s">
+        <v>3</v>
+      </c>
       <c r="BG22" t="s">
         <v>4</v>
       </c>
       <c r="BH22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5077,14 +5222,20 @@
       <c r="BE23" t="s">
         <v>3</v>
       </c>
+      <c r="BF23" t="s">
+        <v>3</v>
+      </c>
       <c r="BG23" t="s">
         <v>3</v>
       </c>
       <c r="BH23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5256,14 +5407,20 @@
       <c r="BE24" t="s">
         <v>3</v>
       </c>
+      <c r="BF24" t="s">
+        <v>3</v>
+      </c>
       <c r="BG24" t="s">
         <v>3</v>
       </c>
       <c r="BH24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5435,14 +5592,20 @@
       <c r="BE25" t="s">
         <v>4</v>
       </c>
+      <c r="BF25" t="s">
+        <v>3</v>
+      </c>
       <c r="BG25" t="s">
         <v>4</v>
       </c>
       <c r="BH25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5614,14 +5777,20 @@
       <c r="BE26" t="s">
         <v>3</v>
       </c>
+      <c r="BF26" t="s">
+        <v>3</v>
+      </c>
       <c r="BG26" t="s">
         <v>3</v>
       </c>
       <c r="BH26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5793,14 +5962,20 @@
       <c r="BE27" t="s">
         <v>3</v>
       </c>
+      <c r="BF27" t="s">
+        <v>3</v>
+      </c>
       <c r="BG27" t="s">
         <v>4</v>
       </c>
       <c r="BH27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -5972,17 +6147,23 @@
       <c r="BE28" t="s">
         <v>3</v>
       </c>
-      <c r="BG28" s="3" t="s">
+      <c r="BF28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG28" s="5" t="s">
         <v>3</v>
       </c>
       <c r="BH28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="BI28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0241C4C-12BF-400F-B233-297CD37F1050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F925D-4887-4091-A6DF-1633A67BC034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,7 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,7 +938,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BF28" sqref="BF28"/>
+      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,6 +1533,9 @@
       <c r="BI3" t="s">
         <v>3</v>
       </c>
+      <c r="BJ3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1719,6 +1721,9 @@
       <c r="BI4" t="s">
         <v>3</v>
       </c>
+      <c r="BJ4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1904,6 +1909,9 @@
       <c r="BI5" t="s">
         <v>3</v>
       </c>
+      <c r="BJ5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2089,6 +2097,9 @@
       <c r="BI6" t="s">
         <v>3</v>
       </c>
+      <c r="BJ6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2274,6 +2285,9 @@
       <c r="BI7" t="s">
         <v>3</v>
       </c>
+      <c r="BJ7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2459,6 +2473,9 @@
       <c r="BI8" t="s">
         <v>3</v>
       </c>
+      <c r="BJ8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2644,6 +2661,9 @@
       <c r="BI9" t="s">
         <v>3</v>
       </c>
+      <c r="BJ9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2829,6 +2849,9 @@
       <c r="BI10" t="s">
         <v>3</v>
       </c>
+      <c r="BJ10" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3014,6 +3037,9 @@
       <c r="BI11" t="s">
         <v>3</v>
       </c>
+      <c r="BJ11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3199,6 +3225,9 @@
       <c r="BI12" t="s">
         <v>3</v>
       </c>
+      <c r="BJ12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3384,6 +3413,9 @@
       <c r="BI13" t="s">
         <v>3</v>
       </c>
+      <c r="BJ13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3569,6 +3601,9 @@
       <c r="BI14" t="s">
         <v>3</v>
       </c>
+      <c r="BJ14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3754,6 +3789,9 @@
       <c r="BI15" t="s">
         <v>3</v>
       </c>
+      <c r="BJ15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3939,8 +3977,11 @@
       <c r="BI16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4124,8 +4165,11 @@
       <c r="BI17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4309,8 +4353,11 @@
       <c r="BI18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4494,8 +4541,11 @@
       <c r="BI19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4679,8 +4729,11 @@
       <c r="BI20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4864,8 +4917,11 @@
       <c r="BI21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5049,8 +5105,11 @@
       <c r="BI22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5234,8 +5293,11 @@
       <c r="BI23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5419,8 +5481,11 @@
       <c r="BI24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5604,8 +5669,11 @@
       <c r="BI25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5789,8 +5857,11 @@
       <c r="BI26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -5974,8 +6045,11 @@
       <c r="BI27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6150,7 +6224,7 @@
       <c r="BF28" t="s">
         <v>4</v>
       </c>
-      <c r="BG28" s="5" t="s">
+      <c r="BG28" t="s">
         <v>3</v>
       </c>
       <c r="BH28" t="s">
@@ -6159,11 +6233,14 @@
       <c r="BI28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="BJ28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363F925D-4887-4091-A6DF-1633A67BC034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D53A61-D645-4023-BEB9-9BB7B07DDEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,7 +938,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ29" sqref="BJ29"/>
+      <selection pane="bottomRight" activeCell="BK26" sqref="BK26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,6 +1536,9 @@
       <c r="BJ3" t="s">
         <v>3</v>
       </c>
+      <c r="BK3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1724,6 +1727,9 @@
       <c r="BJ4" t="s">
         <v>4</v>
       </c>
+      <c r="BK4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1912,6 +1918,9 @@
       <c r="BJ5" t="s">
         <v>3</v>
       </c>
+      <c r="BK5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2098,6 +2107,9 @@
         <v>3</v>
       </c>
       <c r="BJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2288,6 +2300,9 @@
       <c r="BJ7" t="s">
         <v>3</v>
       </c>
+      <c r="BK7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2476,6 +2491,9 @@
       <c r="BJ8" t="s">
         <v>3</v>
       </c>
+      <c r="BK8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2664,6 +2682,9 @@
       <c r="BJ9" t="s">
         <v>3</v>
       </c>
+      <c r="BK9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2852,6 +2873,9 @@
       <c r="BJ10" t="s">
         <v>4</v>
       </c>
+      <c r="BK10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3040,6 +3064,9 @@
       <c r="BJ11" t="s">
         <v>3</v>
       </c>
+      <c r="BK11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3228,6 +3255,9 @@
       <c r="BJ12" t="s">
         <v>3</v>
       </c>
+      <c r="BK12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3416,6 +3446,9 @@
       <c r="BJ13" t="s">
         <v>3</v>
       </c>
+      <c r="BK13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3604,6 +3637,9 @@
       <c r="BJ14" t="s">
         <v>3</v>
       </c>
+      <c r="BK14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3792,6 +3828,9 @@
       <c r="BJ15" t="s">
         <v>3</v>
       </c>
+      <c r="BK15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -3980,8 +4019,11 @@
       <c r="BJ16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4168,8 +4210,11 @@
       <c r="BJ17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4356,8 +4401,11 @@
       <c r="BJ18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4544,8 +4592,11 @@
       <c r="BJ19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4732,8 +4783,11 @@
       <c r="BJ20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4920,8 +4974,11 @@
       <c r="BJ21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5108,8 +5165,11 @@
       <c r="BJ22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5296,8 +5356,11 @@
       <c r="BJ23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5484,8 +5547,11 @@
       <c r="BJ24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5672,8 +5738,11 @@
       <c r="BJ25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5860,8 +5929,11 @@
       <c r="BJ26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6048,8 +6120,11 @@
       <c r="BJ27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6236,11 +6311,14 @@
       <c r="BJ28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:62" x14ac:dyDescent="0.25">
+      <c r="BK28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D53A61-D645-4023-BEB9-9BB7B07DDEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AD4FC-569A-45C1-8482-BC701ECAB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1719" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,6 +255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -932,13 +933,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BL32"/>
+  <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK26" sqref="BK26"/>
+      <selection pane="bottomRight" activeCell="BO8" sqref="BO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +964,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1154,8 +1155,23 @@
       <c r="BL1" s="2">
         <v>45401</v>
       </c>
-    </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM1" s="2">
+        <v>45404</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>45405</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>45406</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>45407</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>45408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1348,8 +1364,23 @@
       <c r="BL2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BM2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1539,8 +1570,17 @@
       <c r="BK3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1730,8 +1770,17 @@
       <c r="BK4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1921,8 +1970,17 @@
       <c r="BK5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN5" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2112,8 +2170,17 @@
       <c r="BK6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2303,8 +2370,17 @@
       <c r="BK7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2494,8 +2570,17 @@
       <c r="BK8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2685,8 +2770,17 @@
       <c r="BK9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL9" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2876,8 +2970,17 @@
       <c r="BK10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3067,8 +3170,17 @@
       <c r="BK11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3258,8 +3370,17 @@
       <c r="BK12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL12" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3449,8 +3570,17 @@
       <c r="BK13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3640,8 +3770,17 @@
       <c r="BK14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -3831,8 +3970,17 @@
       <c r="BK15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL15" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4022,8 +4170,17 @@
       <c r="BK16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4213,8 +4370,17 @@
       <c r="BK17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4404,8 +4570,17 @@
       <c r="BK18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4595,8 +4770,17 @@
       <c r="BK19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4786,8 +4970,17 @@
       <c r="BK20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -4977,8 +5170,17 @@
       <c r="BK21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5168,8 +5370,17 @@
       <c r="BK22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5359,8 +5570,17 @@
       <c r="BK23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5550,8 +5770,17 @@
       <c r="BK24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5741,8 +5970,17 @@
       <c r="BK25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -5932,8 +6170,17 @@
       <c r="BK26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6123,8 +6370,17 @@
       <c r="BK27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6314,11 +6570,20 @@
       <c r="BK28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="BL28" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682AD4FC-569A-45C1-8482-BC701ECAB228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F4A32-EF49-40D4-804D-D2FECCB9C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -255,7 +255,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -936,10 +935,10 @@
   <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO8" sqref="BO8"/>
+      <selection pane="bottomRight" activeCell="BO24" sqref="BO24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,6 +1578,9 @@
       <c r="BN3" t="s">
         <v>3</v>
       </c>
+      <c r="BO3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1779,6 +1781,9 @@
       <c r="BN4" t="s">
         <v>3</v>
       </c>
+      <c r="BO4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1976,7 +1981,10 @@
       <c r="BM5" t="s">
         <v>3</v>
       </c>
-      <c r="BN5" s="5" t="s">
+      <c r="BN5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO5" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2179,6 +2187,9 @@
       <c r="BN6" t="s">
         <v>3</v>
       </c>
+      <c r="BO6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2379,6 +2390,9 @@
       <c r="BN7" t="s">
         <v>3</v>
       </c>
+      <c r="BO7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2579,6 +2593,9 @@
       <c r="BN8" t="s">
         <v>3</v>
       </c>
+      <c r="BO8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2779,6 +2796,9 @@
       <c r="BN9" t="s">
         <v>3</v>
       </c>
+      <c r="BO9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -2979,6 +2999,9 @@
       <c r="BN10" t="s">
         <v>3</v>
       </c>
+      <c r="BO10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3179,6 +3202,9 @@
       <c r="BN11" t="s">
         <v>3</v>
       </c>
+      <c r="BO11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3379,6 +3405,9 @@
       <c r="BN12" t="s">
         <v>3</v>
       </c>
+      <c r="BO12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3579,6 +3608,9 @@
       <c r="BN13" t="s">
         <v>3</v>
       </c>
+      <c r="BO13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3779,6 +3811,9 @@
       <c r="BN14" t="s">
         <v>3</v>
       </c>
+      <c r="BO14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3979,6 +4014,9 @@
       <c r="BN15" t="s">
         <v>3</v>
       </c>
+      <c r="BO15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4179,8 +4217,11 @@
       <c r="BN16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4379,8 +4420,11 @@
       <c r="BN17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4579,8 +4623,11 @@
       <c r="BN18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4779,8 +4826,11 @@
       <c r="BN19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -4979,8 +5029,11 @@
       <c r="BN20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5179,8 +5232,11 @@
       <c r="BN21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5379,8 +5435,11 @@
       <c r="BN22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5579,8 +5638,11 @@
       <c r="BN23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5779,8 +5841,11 @@
       <c r="BN24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -5979,8 +6044,11 @@
       <c r="BN25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6179,8 +6247,11 @@
       <c r="BN26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6379,8 +6450,11 @@
       <c r="BN27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6579,11 +6653,14 @@
       <c r="BN28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:66" x14ac:dyDescent="0.25">
+      <c r="BO28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7F4A32-EF49-40D4-804D-D2FECCB9C958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429CE58-9F11-4A7C-AE4D-19F593661A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -935,10 +935,10 @@
   <dimension ref="A1:BQ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BO24" sqref="BO24"/>
+      <selection pane="bottomRight" activeCell="BK1" sqref="BK1:BK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1581,6 +1581,9 @@
       <c r="BO3" t="s">
         <v>3</v>
       </c>
+      <c r="BP3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1784,6 +1787,9 @@
       <c r="BO4" t="s">
         <v>3</v>
       </c>
+      <c r="BP4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1987,6 +1993,9 @@
       <c r="BO5" t="s">
         <v>3</v>
       </c>
+      <c r="BP5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2190,6 +2199,9 @@
       <c r="BO6" t="s">
         <v>3</v>
       </c>
+      <c r="BP6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2393,6 +2405,9 @@
       <c r="BO7" t="s">
         <v>3</v>
       </c>
+      <c r="BP7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2596,6 +2611,9 @@
       <c r="BO8" t="s">
         <v>3</v>
       </c>
+      <c r="BP8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2799,6 +2817,9 @@
       <c r="BO9" t="s">
         <v>4</v>
       </c>
+      <c r="BP9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3002,6 +3023,9 @@
       <c r="BO10" t="s">
         <v>3</v>
       </c>
+      <c r="BP10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3205,6 +3229,9 @@
       <c r="BO11" t="s">
         <v>3</v>
       </c>
+      <c r="BP11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3408,6 +3435,9 @@
       <c r="BO12" t="s">
         <v>3</v>
       </c>
+      <c r="BP12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3611,6 +3641,9 @@
       <c r="BO13" t="s">
         <v>3</v>
       </c>
+      <c r="BP13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -3814,6 +3847,9 @@
       <c r="BO14" t="s">
         <v>4</v>
       </c>
+      <c r="BP14" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4017,6 +4053,9 @@
       <c r="BO15" t="s">
         <v>3</v>
       </c>
+      <c r="BP15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4220,8 +4259,11 @@
       <c r="BO16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4423,8 +4465,11 @@
       <c r="BO17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4626,8 +4671,11 @@
       <c r="BO18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4829,8 +4877,11 @@
       <c r="BO19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5032,8 +5083,11 @@
       <c r="BO20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5235,8 +5289,11 @@
       <c r="BO21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5438,8 +5495,11 @@
       <c r="BO22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5641,8 +5701,11 @@
       <c r="BO23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5844,8 +5907,11 @@
       <c r="BO24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6047,8 +6113,11 @@
       <c r="BO25" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6250,8 +6319,11 @@
       <c r="BO26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6453,8 +6525,11 @@
       <c r="BO27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6656,11 +6731,14 @@
       <c r="BO28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:67" x14ac:dyDescent="0.25">
+      <c r="BP28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6429CE58-9F11-4A7C-AE4D-19F593661A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AB3D8-1D51-4264-840F-60CC0CE64E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="4185" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="todos" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1854" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BQ32"/>
+  <dimension ref="A1:BR32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BK1" sqref="BK1:BK1048576"/>
+      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1169,8 +1169,11 @@
       <c r="BQ1" s="2">
         <v>45408</v>
       </c>
-    </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR1" s="2">
+        <v>45411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1378,8 +1381,11 @@
       <c r="BQ2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BR2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1584,8 +1590,14 @@
       <c r="BP3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1790,8 +1802,14 @@
       <c r="BP4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1996,8 +2014,14 @@
       <c r="BP5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2202,8 +2226,14 @@
       <c r="BP6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2408,8 +2438,14 @@
       <c r="BP7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2614,8 +2650,14 @@
       <c r="BP8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2820,8 +2862,14 @@
       <c r="BP9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3026,8 +3074,14 @@
       <c r="BP10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3232,8 +3286,14 @@
       <c r="BP11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ11" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3438,8 +3498,14 @@
       <c r="BP12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3644,8 +3710,14 @@
       <c r="BP13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3850,8 +3922,14 @@
       <c r="BP14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ14" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4056,8 +4134,14 @@
       <c r="BP15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="BQ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4262,8 +4346,14 @@
       <c r="BP16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4468,8 +4558,14 @@
       <c r="BP17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4674,8 +4770,14 @@
       <c r="BP18" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4880,8 +4982,14 @@
       <c r="BP19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5086,8 +5194,14 @@
       <c r="BP20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5292,8 +5406,14 @@
       <c r="BP21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5498,8 +5618,14 @@
       <c r="BP22" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5704,8 +5830,14 @@
       <c r="BP23" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5910,8 +6042,14 @@
       <c r="BP24" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6116,8 +6254,14 @@
       <c r="BP25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6322,8 +6466,14 @@
       <c r="BP26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6528,8 +6678,14 @@
       <c r="BP27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6734,11 +6890,17 @@
       <c r="BP28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:68" x14ac:dyDescent="0.25">
+      <c r="BQ28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85AB3D8-1D51-4264-840F-60CC0CE64E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE12C2-A8D7-4750-994F-77CF3E09A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1907" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BR32"/>
+  <dimension ref="A1:BU32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS6" sqref="BS6"/>
+      <selection pane="bottomRight" activeCell="BS28" sqref="BS28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,9 +961,15 @@
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
     <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1172,8 +1178,17 @@
       <c r="BR1" s="2">
         <v>45411</v>
       </c>
+      <c r="BS1" s="2">
+        <v>45412</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>45414</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>45415</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1384,8 +1399,17 @@
       <c r="BR2" t="s">
         <v>47</v>
       </c>
+      <c r="BS2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1596,8 +1620,14 @@
       <c r="BR3" t="s">
         <v>3</v>
       </c>
+      <c r="BS3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1808,8 +1838,14 @@
       <c r="BR4" t="s">
         <v>3</v>
       </c>
+      <c r="BS4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2020,8 +2056,14 @@
       <c r="BR5" t="s">
         <v>4</v>
       </c>
+      <c r="BS5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2232,8 +2274,14 @@
       <c r="BR6" t="s">
         <v>4</v>
       </c>
+      <c r="BS6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2444,8 +2492,14 @@
       <c r="BR7" t="s">
         <v>3</v>
       </c>
+      <c r="BS7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2656,8 +2710,14 @@
       <c r="BR8" t="s">
         <v>3</v>
       </c>
+      <c r="BS8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2868,8 +2928,14 @@
       <c r="BR9" t="s">
         <v>3</v>
       </c>
+      <c r="BS9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3080,8 +3146,14 @@
       <c r="BR10" t="s">
         <v>3</v>
       </c>
+      <c r="BS10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3292,8 +3364,14 @@
       <c r="BR11" t="s">
         <v>3</v>
       </c>
+      <c r="BS11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3504,8 +3582,14 @@
       <c r="BR12" t="s">
         <v>3</v>
       </c>
+      <c r="BS12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3716,8 +3800,14 @@
       <c r="BR13" t="s">
         <v>3</v>
       </c>
+      <c r="BS13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3928,8 +4018,14 @@
       <c r="BR14" t="s">
         <v>3</v>
       </c>
+      <c r="BS14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4140,8 +4236,14 @@
       <c r="BR15" t="s">
         <v>3</v>
       </c>
+      <c r="BS15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4352,8 +4454,14 @@
       <c r="BR16" t="s">
         <v>4</v>
       </c>
+      <c r="BS16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4564,8 +4672,14 @@
       <c r="BR17" t="s">
         <v>4</v>
       </c>
+      <c r="BS17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4776,8 +4890,14 @@
       <c r="BR18" t="s">
         <v>3</v>
       </c>
+      <c r="BS18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -4988,8 +5108,14 @@
       <c r="BR19" t="s">
         <v>3</v>
       </c>
+      <c r="BS19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5200,8 +5326,14 @@
       <c r="BR20" t="s">
         <v>4</v>
       </c>
+      <c r="BS20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5412,8 +5544,14 @@
       <c r="BR21" t="s">
         <v>3</v>
       </c>
+      <c r="BS21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5624,8 +5762,14 @@
       <c r="BR22" t="s">
         <v>3</v>
       </c>
+      <c r="BS22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5836,8 +5980,14 @@
       <c r="BR23" t="s">
         <v>3</v>
       </c>
+      <c r="BS23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6048,8 +6198,14 @@
       <c r="BR24" t="s">
         <v>3</v>
       </c>
+      <c r="BS24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6260,8 +6416,14 @@
       <c r="BR25" t="s">
         <v>3</v>
       </c>
+      <c r="BS25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6472,8 +6634,14 @@
       <c r="BR26" t="s">
         <v>3</v>
       </c>
+      <c r="BS26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6684,8 +6852,14 @@
       <c r="BR27" t="s">
         <v>4</v>
       </c>
+      <c r="BS27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -6896,11 +7070,17 @@
       <c r="BR28" t="s">
         <v>3</v>
       </c>
+      <c r="BS28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AE12C2-A8D7-4750-994F-77CF3E09A032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB02A0-AF33-444B-AEE5-E501CB508654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1962" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -932,13 +932,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BU32"/>
+  <dimension ref="A1:BZ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BS28" sqref="BS28"/>
+      <selection pane="bottomRight" activeCell="BR17" sqref="BR17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -967,9 +967,10 @@
     <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="78" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1188,23 @@
       <c r="BU1" s="2">
         <v>45415</v>
       </c>
+      <c r="BV1" s="2">
+        <v>45418</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>45419</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>45420</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>45421</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>45422</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1408,8 +1424,23 @@
       <c r="BU2" t="s">
         <v>50</v>
       </c>
+      <c r="BV2" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BX2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BY2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1626,8 +1657,14 @@
       <c r="BT3" t="s">
         <v>3</v>
       </c>
+      <c r="BU3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1844,8 +1881,14 @@
       <c r="BT4" t="s">
         <v>3</v>
       </c>
+      <c r="BU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2062,8 +2105,14 @@
       <c r="BT5" t="s">
         <v>3</v>
       </c>
+      <c r="BU5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2280,8 +2329,14 @@
       <c r="BT6" t="s">
         <v>3</v>
       </c>
+      <c r="BU6" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2498,8 +2553,14 @@
       <c r="BT7" t="s">
         <v>3</v>
       </c>
+      <c r="BU7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2716,8 +2777,14 @@
       <c r="BT8" t="s">
         <v>3</v>
       </c>
+      <c r="BU8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2934,8 +3001,14 @@
       <c r="BT9" t="s">
         <v>3</v>
       </c>
+      <c r="BU9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3152,8 +3225,14 @@
       <c r="BT10" t="s">
         <v>3</v>
       </c>
+      <c r="BU10" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3370,8 +3449,14 @@
       <c r="BT11" t="s">
         <v>3</v>
       </c>
+      <c r="BU11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3588,8 +3673,14 @@
       <c r="BT12" t="s">
         <v>3</v>
       </c>
+      <c r="BU12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3806,8 +3897,14 @@
       <c r="BT13" t="s">
         <v>3</v>
       </c>
+      <c r="BU13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4024,8 +4121,14 @@
       <c r="BT14" t="s">
         <v>3</v>
       </c>
+      <c r="BU14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4242,8 +4345,14 @@
       <c r="BT15" t="s">
         <v>3</v>
       </c>
+      <c r="BU15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4460,8 +4569,14 @@
       <c r="BT16" t="s">
         <v>3</v>
       </c>
+      <c r="BU16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4669,7 +4784,7 @@
       <c r="BQ17" t="s">
         <v>3</v>
       </c>
-      <c r="BR17" t="s">
+      <c r="BR17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="BS17" t="s">
@@ -4678,8 +4793,14 @@
       <c r="BT17" t="s">
         <v>4</v>
       </c>
+      <c r="BU17" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4896,8 +5017,14 @@
       <c r="BT18" t="s">
         <v>3</v>
       </c>
+      <c r="BU18" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5114,8 +5241,14 @@
       <c r="BT19" t="s">
         <v>3</v>
       </c>
+      <c r="BU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5332,8 +5465,14 @@
       <c r="BT20" t="s">
         <v>4</v>
       </c>
+      <c r="BU20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5550,8 +5689,14 @@
       <c r="BT21" t="s">
         <v>3</v>
       </c>
+      <c r="BU21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5768,8 +5913,14 @@
       <c r="BT22" t="s">
         <v>3</v>
       </c>
+      <c r="BU22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -5986,8 +6137,14 @@
       <c r="BT23" t="s">
         <v>4</v>
       </c>
+      <c r="BU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6196,16 +6353,22 @@
         <v>3</v>
       </c>
       <c r="BR24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BS24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT24" t="s">
         <v>4</v>
       </c>
+      <c r="BU24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6422,8 +6585,14 @@
       <c r="BT25" t="s">
         <v>3</v>
       </c>
+      <c r="BU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6640,8 +6809,14 @@
       <c r="BT26" t="s">
         <v>4</v>
       </c>
+      <c r="BU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -6858,8 +7033,14 @@
       <c r="BT27" t="s">
         <v>3</v>
       </c>
+      <c r="BU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7076,11 +7257,17 @@
       <c r="BT28" t="s">
         <v>3</v>
       </c>
+      <c r="BU28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB02A0-AF33-444B-AEE5-E501CB508654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD39E0-4B13-4586-9682-8BCFE6D91869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="53">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,7 +938,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BR17" sqref="BR17"/>
+      <selection pane="bottomRight" activeCell="BN15" sqref="BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,6 +1663,9 @@
       <c r="BV3" t="s">
         <v>3</v>
       </c>
+      <c r="BW3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1887,6 +1890,9 @@
       <c r="BV4" t="s">
         <v>3</v>
       </c>
+      <c r="BW4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2111,6 +2117,9 @@
       <c r="BV5" t="s">
         <v>3</v>
       </c>
+      <c r="BW5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2335,6 +2344,9 @@
       <c r="BV6" t="s">
         <v>4</v>
       </c>
+      <c r="BW6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2559,6 +2571,9 @@
       <c r="BV7" t="s">
         <v>3</v>
       </c>
+      <c r="BW7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2783,6 +2798,9 @@
       <c r="BV8" t="s">
         <v>3</v>
       </c>
+      <c r="BW8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3007,6 +3025,9 @@
       <c r="BV9" t="s">
         <v>3</v>
       </c>
+      <c r="BW9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3231,6 +3252,9 @@
       <c r="BV10" t="s">
         <v>3</v>
       </c>
+      <c r="BW10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3455,6 +3479,9 @@
       <c r="BV11" t="s">
         <v>3</v>
       </c>
+      <c r="BW11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3679,6 +3706,9 @@
       <c r="BV12" t="s">
         <v>3</v>
       </c>
+      <c r="BW12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3903,6 +3933,9 @@
       <c r="BV13" t="s">
         <v>3</v>
       </c>
+      <c r="BW13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4127,6 +4160,9 @@
       <c r="BV14" t="s">
         <v>3</v>
       </c>
+      <c r="BW14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4351,6 +4387,9 @@
       <c r="BV15" t="s">
         <v>3</v>
       </c>
+      <c r="BW15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4575,8 +4614,11 @@
       <c r="BV16" t="s">
         <v>3</v>
       </c>
+      <c r="BW16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4799,8 +4841,11 @@
       <c r="BV17" t="s">
         <v>4</v>
       </c>
+      <c r="BW17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5023,8 +5068,11 @@
       <c r="BV18" t="s">
         <v>3</v>
       </c>
+      <c r="BW18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5247,8 +5295,11 @@
       <c r="BV19" t="s">
         <v>3</v>
       </c>
+      <c r="BW19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5471,8 +5522,11 @@
       <c r="BV20" t="s">
         <v>4</v>
       </c>
+      <c r="BW20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5695,8 +5749,11 @@
       <c r="BV21" t="s">
         <v>3</v>
       </c>
+      <c r="BW21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5919,8 +5976,11 @@
       <c r="BV22" t="s">
         <v>3</v>
       </c>
+      <c r="BW22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6143,8 +6203,11 @@
       <c r="BV23" t="s">
         <v>3</v>
       </c>
+      <c r="BW23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6367,8 +6430,11 @@
       <c r="BV24" t="s">
         <v>3</v>
       </c>
+      <c r="BW24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6591,8 +6657,11 @@
       <c r="BV25" t="s">
         <v>4</v>
       </c>
+      <c r="BW25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6815,8 +6884,11 @@
       <c r="BV26" t="s">
         <v>3</v>
       </c>
+      <c r="BW26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7039,8 +7111,11 @@
       <c r="BV27" t="s">
         <v>3</v>
       </c>
+      <c r="BW27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7263,11 +7338,14 @@
       <c r="BV28" t="s">
         <v>3</v>
       </c>
+      <c r="BW28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CD39E0-4B13-4586-9682-8BCFE6D91869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8F2E-953E-4B07-9569-290B502D7359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -938,7 +938,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN15" sqref="BN15"/>
+      <selection pane="bottomRight" activeCell="BN18" sqref="BN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41B8F2E-953E-4B07-9569-290B502D7359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CD31D-8442-4EDB-9F6A-407C757C0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2045" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>INDIMO</t>
+  </si>
+  <si>
+    <t>P/2</t>
   </si>
 </sst>
 </file>
@@ -938,7 +941,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BN18" sqref="BN18"/>
+      <selection pane="bottomRight" activeCell="BX24" sqref="BX24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,6 +1669,9 @@
       <c r="BW3" t="s">
         <v>3</v>
       </c>
+      <c r="BX3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1893,6 +1899,9 @@
       <c r="BW4" t="s">
         <v>3</v>
       </c>
+      <c r="BX4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2120,6 +2129,9 @@
       <c r="BW5" t="s">
         <v>3</v>
       </c>
+      <c r="BX5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2347,6 +2359,9 @@
       <c r="BW6" t="s">
         <v>3</v>
       </c>
+      <c r="BX6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2574,6 +2589,9 @@
       <c r="BW7" t="s">
         <v>3</v>
       </c>
+      <c r="BX7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2801,6 +2819,9 @@
       <c r="BW8" t="s">
         <v>3</v>
       </c>
+      <c r="BX8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3028,6 +3049,9 @@
       <c r="BW9" t="s">
         <v>3</v>
       </c>
+      <c r="BX9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3255,6 +3279,9 @@
       <c r="BW10" t="s">
         <v>3</v>
       </c>
+      <c r="BX10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3482,6 +3509,9 @@
       <c r="BW11" t="s">
         <v>3</v>
       </c>
+      <c r="BX11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3709,6 +3739,9 @@
       <c r="BW12" t="s">
         <v>3</v>
       </c>
+      <c r="BX12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3936,6 +3969,9 @@
       <c r="BW13" t="s">
         <v>3</v>
       </c>
+      <c r="BX13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4163,6 +4199,9 @@
       <c r="BW14" t="s">
         <v>3</v>
       </c>
+      <c r="BX14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4390,6 +4429,9 @@
       <c r="BW15" t="s">
         <v>3</v>
       </c>
+      <c r="BX15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4617,8 +4659,11 @@
       <c r="BW16" t="s">
         <v>3</v>
       </c>
+      <c r="BX16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4844,8 +4889,11 @@
       <c r="BW17" t="s">
         <v>4</v>
       </c>
+      <c r="BX17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5071,8 +5119,11 @@
       <c r="BW18" t="s">
         <v>3</v>
       </c>
+      <c r="BX18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5298,8 +5349,11 @@
       <c r="BW19" t="s">
         <v>3</v>
       </c>
+      <c r="BX19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5525,8 +5579,11 @@
       <c r="BW20" t="s">
         <v>4</v>
       </c>
+      <c r="BX20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5752,8 +5809,11 @@
       <c r="BW21" t="s">
         <v>3</v>
       </c>
+      <c r="BX21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -5979,8 +6039,11 @@
       <c r="BW22" t="s">
         <v>3</v>
       </c>
+      <c r="BX22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6206,8 +6269,11 @@
       <c r="BW23" t="s">
         <v>3</v>
       </c>
+      <c r="BX23" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6433,8 +6499,11 @@
       <c r="BW24" t="s">
         <v>3</v>
       </c>
+      <c r="BX24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6660,8 +6729,11 @@
       <c r="BW25" t="s">
         <v>3</v>
       </c>
+      <c r="BX25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6887,8 +6959,11 @@
       <c r="BW26" t="s">
         <v>3</v>
       </c>
+      <c r="BX26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7114,8 +7189,11 @@
       <c r="BW27" t="s">
         <v>3</v>
       </c>
+      <c r="BX27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7341,11 +7419,14 @@
       <c r="BW28" t="s">
         <v>3</v>
       </c>
+      <c r="BX28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wellington\Desktop\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CD31D-8442-4EDB-9F6A-407C757C0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890C8201-DC50-42E2-9C77-C046B84021D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2180" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -292,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +321,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +427,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +569,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -594,13 +583,13 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -608,7 +597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -616,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -624,7 +613,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -632,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -640,7 +629,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -648,7 +637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -656,7 +645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -664,7 +653,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -672,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -680,7 +669,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -688,7 +677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -696,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -704,7 +693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -712,7 +701,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -720,7 +709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -728,7 +717,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -736,7 +725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -744,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -752,7 +741,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -760,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -768,7 +757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -776,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -784,7 +773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -792,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -800,7 +789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -808,7 +797,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -816,7 +805,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -824,7 +813,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -832,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -840,7 +829,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -848,7 +837,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -856,7 +845,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>33</v>
       </c>
@@ -864,7 +853,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -872,7 +861,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>35</v>
       </c>
@@ -880,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>36</v>
       </c>
@@ -888,7 +877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -896,7 +885,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -904,7 +893,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -912,7 +901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -920,7 +909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -935,45 +924,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BZ32"/>
+  <dimension ref="A1:CE32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX24" sqref="BX24"/>
+      <selection pane="bottomRight" activeCell="BX4" sqref="BX4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="34" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="39" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="41" max="44" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="34" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="41" max="44" width="7.26953125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="49" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="78" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="49" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="78" width="7.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1206,8 +1195,23 @@
       <c r="BZ1" s="2">
         <v>45422</v>
       </c>
+      <c r="CA1" s="2">
+        <v>45425</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>45426</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>45427</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>45428</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>45429</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1442,8 +1446,23 @@
       <c r="BZ2" t="s">
         <v>50</v>
       </c>
+      <c r="CA2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CB2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CC2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1672,8 +1691,20 @@
       <c r="BX3" t="s">
         <v>3</v>
       </c>
+      <c r="BY3" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1902,8 +1933,20 @@
       <c r="BX4" t="s">
         <v>3</v>
       </c>
+      <c r="BY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2132,8 +2175,20 @@
       <c r="BX5" t="s">
         <v>3</v>
       </c>
+      <c r="BY5" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2362,8 +2417,20 @@
       <c r="BX6" t="s">
         <v>3</v>
       </c>
+      <c r="BY6" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2592,8 +2659,20 @@
       <c r="BX7" t="s">
         <v>53</v>
       </c>
+      <c r="BY7" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2822,8 +2901,20 @@
       <c r="BX8" t="s">
         <v>3</v>
       </c>
+      <c r="BY8" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3052,8 +3143,20 @@
       <c r="BX9" t="s">
         <v>3</v>
       </c>
+      <c r="BY9" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ9" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3282,8 +3385,20 @@
       <c r="BX10" t="s">
         <v>3</v>
       </c>
+      <c r="BY10" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3512,8 +3627,20 @@
       <c r="BX11" t="s">
         <v>3</v>
       </c>
+      <c r="BY11" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3742,8 +3869,20 @@
       <c r="BX12" t="s">
         <v>3</v>
       </c>
+      <c r="BY12" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -3972,8 +4111,20 @@
       <c r="BX13" t="s">
         <v>3</v>
       </c>
+      <c r="BY13" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4202,8 +4353,20 @@
       <c r="BX14" t="s">
         <v>3</v>
       </c>
+      <c r="BY14" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4432,8 +4595,20 @@
       <c r="BX15" t="s">
         <v>3</v>
       </c>
+      <c r="BY15" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4662,8 +4837,20 @@
       <c r="BX16" t="s">
         <v>3</v>
       </c>
+      <c r="BY16" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4892,8 +5079,20 @@
       <c r="BX17" t="s">
         <v>3</v>
       </c>
+      <c r="BY17" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5122,8 +5321,20 @@
       <c r="BX18" t="s">
         <v>3</v>
       </c>
+      <c r="BY18" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5352,8 +5563,20 @@
       <c r="BX19" t="s">
         <v>3</v>
       </c>
+      <c r="BY19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5582,8 +5805,20 @@
       <c r="BX20" t="s">
         <v>4</v>
       </c>
+      <c r="BY20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5812,8 +6047,20 @@
       <c r="BX21" t="s">
         <v>3</v>
       </c>
+      <c r="BY21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6042,8 +6289,20 @@
       <c r="BX22" t="s">
         <v>3</v>
       </c>
+      <c r="BY22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6272,8 +6531,20 @@
       <c r="BX23" t="s">
         <v>4</v>
       </c>
+      <c r="BY23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6502,8 +6773,20 @@
       <c r="BX24" t="s">
         <v>3</v>
       </c>
+      <c r="BY24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6732,8 +7015,20 @@
       <c r="BX25" t="s">
         <v>4</v>
       </c>
+      <c r="BY25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6962,8 +7257,20 @@
       <c r="BX26" t="s">
         <v>3</v>
       </c>
+      <c r="BY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7192,8 +7499,20 @@
       <c r="BX27" t="s">
         <v>3</v>
       </c>
+      <c r="BY27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:80" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7422,15 +7741,27 @@
       <c r="BX28" t="s">
         <v>3</v>
       </c>
+      <c r="BY28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:80" x14ac:dyDescent="0.35">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:80" x14ac:dyDescent="0.35">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">
+  <sortState ref="A3:B28">
     <sortCondition ref="B2:B28"/>
   </sortState>
   <mergeCells count="1">

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385CD31D-8442-4EDB-9F6A-407C757C0DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1373AFC6-048C-4224-B36C-19B5EE64D9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2097" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -941,7 +941,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BX24" sqref="BX24"/>
+      <selection pane="bottomRight" activeCell="BZ28" sqref="BZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1672,6 +1672,9 @@
       <c r="BX3" t="s">
         <v>3</v>
       </c>
+      <c r="BZ3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1902,6 +1905,9 @@
       <c r="BX4" t="s">
         <v>3</v>
       </c>
+      <c r="BZ4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2132,6 +2138,9 @@
       <c r="BX5" t="s">
         <v>3</v>
       </c>
+      <c r="BZ5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2362,6 +2371,9 @@
       <c r="BX6" t="s">
         <v>3</v>
       </c>
+      <c r="BZ6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2592,6 +2604,9 @@
       <c r="BX7" t="s">
         <v>53</v>
       </c>
+      <c r="BZ7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2822,6 +2837,9 @@
       <c r="BX8" t="s">
         <v>3</v>
       </c>
+      <c r="BZ8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3052,6 +3070,9 @@
       <c r="BX9" t="s">
         <v>3</v>
       </c>
+      <c r="BZ9" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3282,6 +3303,9 @@
       <c r="BX10" t="s">
         <v>3</v>
       </c>
+      <c r="BZ10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3512,6 +3536,9 @@
       <c r="BX11" t="s">
         <v>3</v>
       </c>
+      <c r="BZ11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3742,6 +3769,9 @@
       <c r="BX12" t="s">
         <v>3</v>
       </c>
+      <c r="BZ12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3972,6 +4002,9 @@
       <c r="BX13" t="s">
         <v>3</v>
       </c>
+      <c r="BZ13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4202,6 +4235,9 @@
       <c r="BX14" t="s">
         <v>3</v>
       </c>
+      <c r="BZ14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4432,6 +4468,9 @@
       <c r="BX15" t="s">
         <v>3</v>
       </c>
+      <c r="BZ15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4662,8 +4701,11 @@
       <c r="BX16" t="s">
         <v>3</v>
       </c>
+      <c r="BZ16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4892,8 +4934,11 @@
       <c r="BX17" t="s">
         <v>3</v>
       </c>
+      <c r="BZ17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5122,8 +5167,11 @@
       <c r="BX18" t="s">
         <v>3</v>
       </c>
+      <c r="BZ18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5352,8 +5400,11 @@
       <c r="BX19" t="s">
         <v>3</v>
       </c>
+      <c r="BZ19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5582,8 +5633,11 @@
       <c r="BX20" t="s">
         <v>4</v>
       </c>
+      <c r="BZ20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5812,8 +5866,11 @@
       <c r="BX21" t="s">
         <v>3</v>
       </c>
+      <c r="BZ21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6042,8 +6099,11 @@
       <c r="BX22" t="s">
         <v>3</v>
       </c>
+      <c r="BZ22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6272,8 +6332,11 @@
       <c r="BX23" t="s">
         <v>4</v>
       </c>
+      <c r="BZ23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6502,8 +6565,11 @@
       <c r="BX24" t="s">
         <v>3</v>
       </c>
+      <c r="BZ24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6732,8 +6798,11 @@
       <c r="BX25" t="s">
         <v>4</v>
       </c>
+      <c r="BZ25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -6962,8 +7031,11 @@
       <c r="BX26" t="s">
         <v>3</v>
       </c>
+      <c r="BZ26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7192,8 +7264,11 @@
       <c r="BX27" t="s">
         <v>3</v>
       </c>
+      <c r="BZ27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7422,11 +7497,14 @@
       <c r="BX28" t="s">
         <v>3</v>
       </c>
+      <c r="BZ28" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:78" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E175313-B358-43EF-A378-F4FEF2995366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E526D44-207F-43C4-AF4D-89EED85E3437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="54">
   <si>
     <t>Alunos</t>
   </si>
@@ -941,7 +941,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC28" sqref="CC28"/>
+      <selection pane="bottomRight" activeCell="CD28" sqref="CC3:CD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,6 +1708,9 @@
       <c r="CC3" t="s">
         <v>4</v>
       </c>
+      <c r="CD3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1944,6 +1947,9 @@
       <c r="CC4" t="s">
         <v>3</v>
       </c>
+      <c r="CD4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2180,6 +2186,9 @@
       <c r="CC5" t="s">
         <v>3</v>
       </c>
+      <c r="CD5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2416,6 +2425,9 @@
       <c r="CC6" t="s">
         <v>4</v>
       </c>
+      <c r="CD6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2652,6 +2664,9 @@
       <c r="CC7" t="s">
         <v>4</v>
       </c>
+      <c r="CD7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -2888,6 +2903,9 @@
       <c r="CC8" t="s">
         <v>3</v>
       </c>
+      <c r="CD8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3124,6 +3142,9 @@
       <c r="CC9" t="s">
         <v>3</v>
       </c>
+      <c r="CD9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3360,6 +3381,9 @@
       <c r="CC10" t="s">
         <v>3</v>
       </c>
+      <c r="CD10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3596,6 +3620,9 @@
       <c r="CC11" t="s">
         <v>3</v>
       </c>
+      <c r="CD11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -3832,6 +3859,9 @@
       <c r="CC12" t="s">
         <v>3</v>
       </c>
+      <c r="CD12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4068,6 +4098,9 @@
       <c r="CC13" t="s">
         <v>3</v>
       </c>
+      <c r="CD13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4304,6 +4337,9 @@
       <c r="CC14" t="s">
         <v>3</v>
       </c>
+      <c r="CD14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4540,6 +4576,9 @@
       <c r="CC15" t="s">
         <v>3</v>
       </c>
+      <c r="CD15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -4776,8 +4815,11 @@
       <c r="CC16" t="s">
         <v>3</v>
       </c>
+      <c r="CD16" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5012,8 +5054,11 @@
       <c r="CC17" t="s">
         <v>4</v>
       </c>
+      <c r="CD17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5248,8 +5293,11 @@
       <c r="CC18" t="s">
         <v>3</v>
       </c>
+      <c r="CD18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5484,8 +5532,11 @@
       <c r="CC19" t="s">
         <v>3</v>
       </c>
+      <c r="CD19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5720,8 +5771,11 @@
       <c r="CC20" t="s">
         <v>4</v>
       </c>
+      <c r="CD20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -5956,8 +6010,11 @@
       <c r="CC21" t="s">
         <v>3</v>
       </c>
+      <c r="CD21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6192,8 +6249,11 @@
       <c r="CC22" t="s">
         <v>3</v>
       </c>
+      <c r="CD22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6428,8 +6488,11 @@
       <c r="CC23" t="s">
         <v>4</v>
       </c>
+      <c r="CD23" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6664,8 +6727,11 @@
       <c r="CC24" t="s">
         <v>3</v>
       </c>
+      <c r="CD24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6900,8 +6966,11 @@
       <c r="CC25" t="s">
         <v>4</v>
       </c>
+      <c r="CD25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7136,8 +7205,11 @@
       <c r="CC26" t="s">
         <v>3</v>
       </c>
+      <c r="CD26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7372,8 +7444,11 @@
       <c r="CC27" t="s">
         <v>4</v>
       </c>
+      <c r="CD27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7608,11 +7683,14 @@
       <c r="CC28" t="s">
         <v>3</v>
       </c>
+      <c r="CD28" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E526D44-207F-43C4-AF4D-89EED85E3437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FDFDD-9D6C-4FCA-9B7D-76642A18D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,7 +941,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD28" sqref="CC3:CD28"/>
+      <selection pane="bottomRight" activeCell="CD28" sqref="CD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7684,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="CD28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:82" x14ac:dyDescent="0.25">

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4FDFDD-9D6C-4FCA-9B7D-76642A18D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A8F33-001C-4191-9789-11F4741E3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -200,6 +200,9 @@
   <si>
     <t>P/2</t>
   </si>
+  <si>
+    <t>2P</t>
+  </si>
 </sst>
 </file>
 
@@ -250,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -258,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -935,13 +939,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CE32"/>
+  <dimension ref="A1:CJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BC3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CD28" sqref="CD28"/>
+      <selection pane="bottomRight" activeCell="BZ28" sqref="BZ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -970,10 +974,15 @@
     <col min="69" max="69" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="73" max="73" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="83" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="79" max="82" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="84" max="87" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1221,8 +1230,23 @@
       <c r="CE1" s="2">
         <v>45429</v>
       </c>
+      <c r="CF1" s="2">
+        <v>45432</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>45433</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>45434</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>45435</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>45436</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1472,8 +1496,23 @@
       <c r="CE2" t="s">
         <v>50</v>
       </c>
+      <c r="CF2" t="s">
+        <v>47</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CJ2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1702,17 +1741,35 @@
       <c r="BX3" t="s">
         <v>3</v>
       </c>
+      <c r="BY3" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ3" t="s">
         <v>3</v>
       </c>
+      <c r="CA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>3</v>
+      </c>
       <c r="CC3" t="s">
         <v>4</v>
       </c>
       <c r="CD3" t="s">
         <v>3</v>
       </c>
+      <c r="CE3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1941,17 +1998,35 @@
       <c r="BX4" t="s">
         <v>3</v>
       </c>
+      <c r="BY4" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ4" t="s">
         <v>3</v>
       </c>
+      <c r="CA4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>3</v>
+      </c>
       <c r="CC4" t="s">
         <v>3</v>
       </c>
       <c r="CD4" t="s">
         <v>3</v>
       </c>
+      <c r="CE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2180,17 +2255,35 @@
       <c r="BX5" t="s">
         <v>3</v>
       </c>
+      <c r="BY5" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ5" t="s">
         <v>3</v>
       </c>
+      <c r="CA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>3</v>
+      </c>
       <c r="CC5" t="s">
         <v>3</v>
       </c>
       <c r="CD5" t="s">
         <v>4</v>
       </c>
+      <c r="CE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2419,17 +2512,35 @@
       <c r="BX6" t="s">
         <v>3</v>
       </c>
+      <c r="BY6" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ6" t="s">
         <v>4</v>
       </c>
+      <c r="CA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB6" t="s">
+        <v>3</v>
+      </c>
       <c r="CC6" t="s">
         <v>4</v>
       </c>
       <c r="CD6" t="s">
         <v>3</v>
       </c>
+      <c r="CE6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2658,17 +2769,35 @@
       <c r="BX7" t="s">
         <v>53</v>
       </c>
+      <c r="BY7" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ7" t="s">
         <v>3</v>
       </c>
+      <c r="CA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB7" t="s">
+        <v>3</v>
+      </c>
       <c r="CC7" t="s">
         <v>4</v>
       </c>
       <c r="CD7" t="s">
         <v>3</v>
       </c>
+      <c r="CE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF7" t="s">
+        <v>54</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2897,17 +3026,35 @@
       <c r="BX8" t="s">
         <v>3</v>
       </c>
+      <c r="BY8" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ8" t="s">
         <v>3</v>
       </c>
+      <c r="CA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB8" t="s">
+        <v>3</v>
+      </c>
       <c r="CC8" t="s">
         <v>3</v>
       </c>
       <c r="CD8" t="s">
         <v>3</v>
       </c>
+      <c r="CE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3136,17 +3283,35 @@
       <c r="BX9" t="s">
         <v>3</v>
       </c>
+      <c r="BY9" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ9" t="s">
         <v>4</v>
       </c>
+      <c r="CA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB9" t="s">
+        <v>3</v>
+      </c>
       <c r="CC9" t="s">
         <v>3</v>
       </c>
       <c r="CD9" t="s">
         <v>3</v>
       </c>
+      <c r="CE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3375,17 +3540,35 @@
       <c r="BX10" t="s">
         <v>3</v>
       </c>
+      <c r="BY10" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ10" t="s">
         <v>3</v>
       </c>
+      <c r="CA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB10" t="s">
+        <v>3</v>
+      </c>
       <c r="CC10" t="s">
         <v>3</v>
       </c>
       <c r="CD10" t="s">
         <v>3</v>
       </c>
+      <c r="CE10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3614,17 +3797,35 @@
       <c r="BX11" t="s">
         <v>3</v>
       </c>
+      <c r="BY11" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ11" t="s">
         <v>3</v>
       </c>
+      <c r="CA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB11" t="s">
+        <v>3</v>
+      </c>
       <c r="CC11" t="s">
         <v>3</v>
       </c>
       <c r="CD11" t="s">
         <v>4</v>
       </c>
+      <c r="CE11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3853,17 +4054,35 @@
       <c r="BX12" t="s">
         <v>3</v>
       </c>
+      <c r="BY12" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ12" t="s">
         <v>3</v>
       </c>
+      <c r="CA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB12" t="s">
+        <v>3</v>
+      </c>
       <c r="CC12" t="s">
         <v>3</v>
       </c>
       <c r="CD12" t="s">
         <v>3</v>
       </c>
+      <c r="CE12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4092,17 +4311,35 @@
       <c r="BX13" t="s">
         <v>3</v>
       </c>
+      <c r="BY13" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ13" t="s">
         <v>3</v>
       </c>
+      <c r="CA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB13" t="s">
+        <v>3</v>
+      </c>
       <c r="CC13" t="s">
         <v>3</v>
       </c>
       <c r="CD13" t="s">
         <v>3</v>
       </c>
+      <c r="CE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4331,17 +4568,35 @@
       <c r="BX14" t="s">
         <v>3</v>
       </c>
+      <c r="BY14" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ14" t="s">
         <v>3</v>
       </c>
+      <c r="CA14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB14" t="s">
+        <v>3</v>
+      </c>
       <c r="CC14" t="s">
         <v>3</v>
       </c>
       <c r="CD14" t="s">
         <v>3</v>
       </c>
+      <c r="CE14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4570,17 +4825,35 @@
       <c r="BX15" t="s">
         <v>3</v>
       </c>
+      <c r="BY15" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ15" t="s">
         <v>3</v>
       </c>
+      <c r="CA15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB15" t="s">
+        <v>3</v>
+      </c>
       <c r="CC15" t="s">
         <v>3</v>
       </c>
       <c r="CD15" t="s">
         <v>3</v>
       </c>
+      <c r="CE15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -4809,17 +5082,35 @@
       <c r="BX16" t="s">
         <v>3</v>
       </c>
+      <c r="BY16" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ16" t="s">
         <v>3</v>
       </c>
+      <c r="CA16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>3</v>
+      </c>
       <c r="CC16" t="s">
         <v>3</v>
       </c>
       <c r="CD16" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5048,17 +5339,35 @@
       <c r="BX17" t="s">
         <v>3</v>
       </c>
+      <c r="BY17" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ17" t="s">
         <v>3</v>
       </c>
+      <c r="CA17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB17" t="s">
+        <v>3</v>
+      </c>
       <c r="CC17" t="s">
         <v>4</v>
       </c>
       <c r="CD17" t="s">
         <v>3</v>
       </c>
+      <c r="CE17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5287,17 +5596,35 @@
       <c r="BX18" t="s">
         <v>3</v>
       </c>
+      <c r="BY18" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ18" t="s">
         <v>3</v>
       </c>
+      <c r="CA18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB18" t="s">
+        <v>3</v>
+      </c>
       <c r="CC18" t="s">
         <v>3</v>
       </c>
       <c r="CD18" t="s">
         <v>3</v>
       </c>
+      <c r="CE18" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5526,17 +5853,35 @@
       <c r="BX19" t="s">
         <v>3</v>
       </c>
+      <c r="BY19" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ19" t="s">
         <v>3</v>
       </c>
+      <c r="CA19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>3</v>
+      </c>
       <c r="CC19" t="s">
         <v>3</v>
       </c>
       <c r="CD19" t="s">
         <v>3</v>
       </c>
+      <c r="CE19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -5765,17 +6110,35 @@
       <c r="BX20" t="s">
         <v>4</v>
       </c>
+      <c r="BY20" t="s">
+        <v>4</v>
+      </c>
       <c r="BZ20" t="s">
         <v>4</v>
       </c>
+      <c r="CA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>4</v>
+      </c>
       <c r="CC20" t="s">
         <v>4</v>
       </c>
       <c r="CD20" t="s">
         <v>4</v>
       </c>
+      <c r="CE20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6004,17 +6367,35 @@
       <c r="BX21" t="s">
         <v>3</v>
       </c>
+      <c r="BY21" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ21" t="s">
         <v>3</v>
       </c>
+      <c r="CA21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>3</v>
+      </c>
       <c r="CC21" t="s">
         <v>3</v>
       </c>
       <c r="CD21" t="s">
         <v>3</v>
       </c>
+      <c r="CE21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6243,17 +6624,35 @@
       <c r="BX22" t="s">
         <v>3</v>
       </c>
+      <c r="BY22" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ22" t="s">
         <v>3</v>
       </c>
+      <c r="CA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>3</v>
+      </c>
       <c r="CC22" t="s">
         <v>3</v>
       </c>
       <c r="CD22" t="s">
         <v>3</v>
       </c>
+      <c r="CE22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6482,17 +6881,35 @@
       <c r="BX23" t="s">
         <v>4</v>
       </c>
+      <c r="BY23" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ23" t="s">
         <v>3</v>
       </c>
+      <c r="CA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>3</v>
+      </c>
       <c r="CC23" t="s">
         <v>4</v>
       </c>
       <c r="CD23" t="s">
         <v>4</v>
       </c>
+      <c r="CE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -6721,17 +7138,35 @@
       <c r="BX24" t="s">
         <v>3</v>
       </c>
+      <c r="BY24" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ24" t="s">
         <v>3</v>
       </c>
+      <c r="CA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>3</v>
+      </c>
       <c r="CC24" t="s">
         <v>3</v>
       </c>
       <c r="CD24" t="s">
         <v>3</v>
       </c>
+      <c r="CE24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -6960,17 +7395,35 @@
       <c r="BX25" t="s">
         <v>4</v>
       </c>
+      <c r="BY25" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ25" t="s">
         <v>3</v>
       </c>
+      <c r="CA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>3</v>
+      </c>
       <c r="CC25" t="s">
         <v>4</v>
       </c>
       <c r="CD25" t="s">
         <v>4</v>
       </c>
+      <c r="CE25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7199,17 +7652,35 @@
       <c r="BX26" t="s">
         <v>3</v>
       </c>
+      <c r="BY26" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ26" t="s">
         <v>3</v>
       </c>
+      <c r="CA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>3</v>
+      </c>
       <c r="CC26" t="s">
         <v>3</v>
       </c>
       <c r="CD26" t="s">
         <v>3</v>
       </c>
+      <c r="CE26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7438,17 +7909,35 @@
       <c r="BX27" t="s">
         <v>3</v>
       </c>
+      <c r="BY27" t="s">
+        <v>3</v>
+      </c>
       <c r="BZ27" t="s">
         <v>3</v>
       </c>
+      <c r="CA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>3</v>
+      </c>
       <c r="CC27" t="s">
         <v>4</v>
       </c>
       <c r="CD27" t="s">
         <v>3</v>
       </c>
+      <c r="CE27" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -7677,7 +8166,16 @@
       <c r="BX28" t="s">
         <v>3</v>
       </c>
-      <c r="BZ28" s="3" t="s">
+      <c r="BY28" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB28" t="s">
         <v>3</v>
       </c>
       <c r="CC28" t="s">
@@ -7686,11 +8184,20 @@
       <c r="CD28" t="s">
         <v>3</v>
       </c>
+      <c r="CE28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099A8F33-001C-4191-9789-11F4741E3FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEFDDF-B6D5-4E0B-88EC-ECDD39C20CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2315" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,7 +944,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BZ28" sqref="BZ28"/>
+      <selection pane="bottomRight" activeCell="CH28" sqref="CH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1768,6 +1767,9 @@
       <c r="CG3" t="s">
         <v>3</v>
       </c>
+      <c r="CH3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2025,6 +2027,9 @@
       <c r="CG4" t="s">
         <v>3</v>
       </c>
+      <c r="CH4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2282,6 +2287,9 @@
       <c r="CG5" t="s">
         <v>3</v>
       </c>
+      <c r="CH5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2539,6 +2547,9 @@
       <c r="CG6" t="s">
         <v>3</v>
       </c>
+      <c r="CH6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -2796,6 +2807,9 @@
       <c r="CG7" t="s">
         <v>3</v>
       </c>
+      <c r="CH7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3053,6 +3067,9 @@
       <c r="CG8" t="s">
         <v>3</v>
       </c>
+      <c r="CH8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3310,6 +3327,9 @@
       <c r="CG9" t="s">
         <v>3</v>
       </c>
+      <c r="CH9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3567,6 +3587,9 @@
       <c r="CG10" t="s">
         <v>3</v>
       </c>
+      <c r="CH10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3824,6 +3847,9 @@
       <c r="CG11" t="s">
         <v>3</v>
       </c>
+      <c r="CH11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4081,6 +4107,9 @@
       <c r="CG12" t="s">
         <v>3</v>
       </c>
+      <c r="CH12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4338,6 +4367,9 @@
       <c r="CG13" t="s">
         <v>3</v>
       </c>
+      <c r="CH13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -4595,6 +4627,9 @@
       <c r="CG14" t="s">
         <v>3</v>
       </c>
+      <c r="CH14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -4852,6 +4887,9 @@
       <c r="CG15" t="s">
         <v>3</v>
       </c>
+      <c r="CH15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5109,8 +5147,11 @@
       <c r="CG16" t="s">
         <v>3</v>
       </c>
+      <c r="CH16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5366,8 +5407,11 @@
       <c r="CG17" t="s">
         <v>3</v>
       </c>
+      <c r="CH17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5623,8 +5667,11 @@
       <c r="CG18" t="s">
         <v>3</v>
       </c>
+      <c r="CH18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5880,8 +5927,11 @@
       <c r="CG19" t="s">
         <v>3</v>
       </c>
+      <c r="CH19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6137,8 +6187,11 @@
       <c r="CG20" t="s">
         <v>4</v>
       </c>
+      <c r="CH20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6394,8 +6447,11 @@
       <c r="CG21" t="s">
         <v>3</v>
       </c>
+      <c r="CH21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6651,8 +6707,11 @@
       <c r="CG22" t="s">
         <v>3</v>
       </c>
+      <c r="CH22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6908,8 +6967,11 @@
       <c r="CG23" t="s">
         <v>3</v>
       </c>
+      <c r="CH23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7165,8 +7227,11 @@
       <c r="CG24" t="s">
         <v>3</v>
       </c>
+      <c r="CH24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7422,8 +7487,11 @@
       <c r="CG25" t="s">
         <v>3</v>
       </c>
+      <c r="CH25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7679,8 +7747,11 @@
       <c r="CG26" t="s">
         <v>3</v>
       </c>
+      <c r="CH26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -7936,8 +8007,11 @@
       <c r="CG27" t="s">
         <v>3</v>
       </c>
+      <c r="CH27" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -8169,7 +8243,7 @@
       <c r="BY28" t="s">
         <v>3</v>
       </c>
-      <c r="BZ28" s="5" t="s">
+      <c r="BZ28" t="s">
         <v>3</v>
       </c>
       <c r="CA28" t="s">
@@ -8193,11 +8267,14 @@
       <c r="CG28" t="s">
         <v>3</v>
       </c>
+      <c r="CH28" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCEFDDF-B6D5-4E0B-88EC-ECDD39C20CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85CC117-31B4-4512-BEE0-4FD972C11AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2341" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,13 +938,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CJ32"/>
+  <dimension ref="A1:CK32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CH28" sqref="CH28"/>
+      <selection pane="bottomRight" activeCell="CK28" sqref="CK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,9 +979,10 @@
     <col min="83" max="83" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="84" max="87" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1244,8 +1245,11 @@
       <c r="CJ1" s="2">
         <v>45436</v>
       </c>
+      <c r="CK1" s="2">
+        <v>45439</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1510,8 +1514,11 @@
       <c r="CJ2" t="s">
         <v>50</v>
       </c>
+      <c r="CK2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1770,8 +1777,14 @@
       <c r="CH3" t="s">
         <v>3</v>
       </c>
+      <c r="CJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2030,8 +2043,14 @@
       <c r="CH4" t="s">
         <v>3</v>
       </c>
+      <c r="CJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2290,8 +2309,14 @@
       <c r="CH5" t="s">
         <v>3</v>
       </c>
+      <c r="CJ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2550,8 +2575,14 @@
       <c r="CH6" t="s">
         <v>3</v>
       </c>
+      <c r="CJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2810,8 +2841,14 @@
       <c r="CH7" t="s">
         <v>3</v>
       </c>
+      <c r="CJ7" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3070,8 +3107,14 @@
       <c r="CH8" t="s">
         <v>3</v>
       </c>
+      <c r="CJ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3330,8 +3373,14 @@
       <c r="CH9" t="s">
         <v>3</v>
       </c>
+      <c r="CJ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3590,8 +3639,14 @@
       <c r="CH10" t="s">
         <v>3</v>
       </c>
+      <c r="CJ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK10" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3850,8 +3905,14 @@
       <c r="CH11" t="s">
         <v>3</v>
       </c>
+      <c r="CJ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4110,8 +4171,14 @@
       <c r="CH12" t="s">
         <v>3</v>
       </c>
+      <c r="CJ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4370,8 +4437,14 @@
       <c r="CH13" t="s">
         <v>3</v>
       </c>
+      <c r="CJ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4630,8 +4703,14 @@
       <c r="CH14" t="s">
         <v>3</v>
       </c>
+      <c r="CJ14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4890,8 +4969,14 @@
       <c r="CH15" t="s">
         <v>4</v>
       </c>
+      <c r="CJ15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5150,8 +5235,14 @@
       <c r="CH16" t="s">
         <v>3</v>
       </c>
+      <c r="CJ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5410,8 +5501,14 @@
       <c r="CH17" t="s">
         <v>3</v>
       </c>
+      <c r="CJ17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5670,8 +5767,14 @@
       <c r="CH18" t="s">
         <v>3</v>
       </c>
+      <c r="CJ18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -5930,8 +6033,14 @@
       <c r="CH19" t="s">
         <v>4</v>
       </c>
+      <c r="CJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6190,8 +6299,17 @@
       <c r="CH20" t="s">
         <v>4</v>
       </c>
+      <c r="CI20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6450,8 +6568,14 @@
       <c r="CH21" t="s">
         <v>3</v>
       </c>
+      <c r="CJ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6710,8 +6834,14 @@
       <c r="CH22" t="s">
         <v>3</v>
       </c>
+      <c r="CJ22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -6970,8 +7100,14 @@
       <c r="CH23" t="s">
         <v>3</v>
       </c>
+      <c r="CJ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7230,8 +7366,14 @@
       <c r="CH24" t="s">
         <v>3</v>
       </c>
+      <c r="CJ24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7490,8 +7632,14 @@
       <c r="CH25" t="s">
         <v>3</v>
       </c>
+      <c r="CJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7750,8 +7898,14 @@
       <c r="CH26" t="s">
         <v>3</v>
       </c>
+      <c r="CJ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -8010,8 +8164,14 @@
       <c r="CH27" t="s">
         <v>4</v>
       </c>
+      <c r="CJ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -8270,11 +8430,17 @@
       <c r="CH28" t="s">
         <v>3</v>
       </c>
+      <c r="CJ28" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK28" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85CC117-31B4-4512-BEE0-4FD972C11AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E3832-04A9-47B7-AAA5-23E650285AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2395" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,13 +938,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CK32"/>
+  <dimension ref="A1:CN32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CK28" sqref="CK28"/>
+      <selection pane="bottomRight" activeCell="CN28" sqref="CN28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,10 +979,10 @@
     <col min="83" max="83" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="84" max="87" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="89" max="91" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1248,8 +1248,17 @@
       <c r="CK1" s="2">
         <v>45439</v>
       </c>
+      <c r="CL1" s="2">
+        <v>45440</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>45441</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>45446</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1517,8 +1526,17 @@
       <c r="CK2" t="s">
         <v>47</v>
       </c>
+      <c r="CL2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CM2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CN2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1777,14 +1795,26 @@
       <c r="CH3" t="s">
         <v>3</v>
       </c>
+      <c r="CI3" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ3" t="s">
         <v>3</v>
       </c>
       <c r="CK3" t="s">
         <v>4</v>
       </c>
+      <c r="CL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2043,14 +2073,26 @@
       <c r="CH4" t="s">
         <v>3</v>
       </c>
+      <c r="CI4" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ4" t="s">
         <v>3</v>
       </c>
       <c r="CK4" t="s">
         <v>4</v>
       </c>
+      <c r="CL4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2309,14 +2351,26 @@
       <c r="CH5" t="s">
         <v>3</v>
       </c>
+      <c r="CI5" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ5" t="s">
         <v>3</v>
       </c>
       <c r="CK5" t="s">
         <v>3</v>
       </c>
+      <c r="CL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2575,14 +2629,26 @@
       <c r="CH6" t="s">
         <v>3</v>
       </c>
+      <c r="CI6" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ6" t="s">
         <v>3</v>
       </c>
       <c r="CK6" t="s">
         <v>3</v>
       </c>
+      <c r="CL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2841,14 +2907,26 @@
       <c r="CH7" t="s">
         <v>3</v>
       </c>
+      <c r="CI7" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ7" t="s">
         <v>4</v>
       </c>
       <c r="CK7" t="s">
         <v>4</v>
       </c>
+      <c r="CL7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3107,14 +3185,26 @@
       <c r="CH8" t="s">
         <v>3</v>
       </c>
+      <c r="CI8" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ8" t="s">
         <v>3</v>
       </c>
       <c r="CK8" t="s">
         <v>3</v>
       </c>
+      <c r="CL8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3373,14 +3463,26 @@
       <c r="CH9" t="s">
         <v>3</v>
       </c>
+      <c r="CI9" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ9" t="s">
         <v>3</v>
       </c>
       <c r="CK9" t="s">
         <v>3</v>
       </c>
+      <c r="CL9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3639,14 +3741,26 @@
       <c r="CH10" t="s">
         <v>3</v>
       </c>
+      <c r="CI10" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ10" t="s">
         <v>3</v>
       </c>
       <c r="CK10" t="s">
         <v>4</v>
       </c>
+      <c r="CL10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3905,14 +4019,26 @@
       <c r="CH11" t="s">
         <v>3</v>
       </c>
+      <c r="CI11" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ11" t="s">
         <v>3</v>
       </c>
       <c r="CK11" t="s">
         <v>3</v>
       </c>
+      <c r="CL11" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4171,14 +4297,26 @@
       <c r="CH12" t="s">
         <v>3</v>
       </c>
+      <c r="CI12" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ12" t="s">
         <v>3</v>
       </c>
       <c r="CK12" t="s">
         <v>3</v>
       </c>
+      <c r="CL12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4437,14 +4575,26 @@
       <c r="CH13" t="s">
         <v>3</v>
       </c>
+      <c r="CI13" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ13" t="s">
         <v>3</v>
       </c>
       <c r="CK13" t="s">
         <v>3</v>
       </c>
+      <c r="CL13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4703,14 +4853,26 @@
       <c r="CH14" t="s">
         <v>3</v>
       </c>
+      <c r="CI14" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ14" t="s">
         <v>3</v>
       </c>
       <c r="CK14" t="s">
         <v>3</v>
       </c>
+      <c r="CL14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -4969,14 +5131,26 @@
       <c r="CH15" t="s">
         <v>4</v>
       </c>
+      <c r="CI15" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ15" t="s">
         <v>4</v>
       </c>
       <c r="CK15" t="s">
         <v>3</v>
       </c>
+      <c r="CL15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM15" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5235,14 +5409,26 @@
       <c r="CH16" t="s">
         <v>3</v>
       </c>
+      <c r="CI16" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ16" t="s">
         <v>3</v>
       </c>
       <c r="CK16" t="s">
         <v>4</v>
       </c>
+      <c r="CL16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5501,14 +5687,26 @@
       <c r="CH17" t="s">
         <v>3</v>
       </c>
+      <c r="CI17" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ17" t="s">
         <v>3</v>
       </c>
       <c r="CK17" t="s">
         <v>3</v>
       </c>
+      <c r="CL17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -5767,14 +5965,26 @@
       <c r="CH18" t="s">
         <v>3</v>
       </c>
+      <c r="CI18" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ18" t="s">
         <v>3</v>
       </c>
       <c r="CK18" t="s">
         <v>3</v>
       </c>
+      <c r="CL18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM18" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6033,14 +6243,26 @@
       <c r="CH19" t="s">
         <v>4</v>
       </c>
+      <c r="CI19" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ19" t="s">
         <v>3</v>
       </c>
       <c r="CK19" t="s">
         <v>3</v>
       </c>
+      <c r="CL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -6308,8 +6530,17 @@
       <c r="CK20" t="s">
         <v>4</v>
       </c>
+      <c r="CL20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -6568,14 +6799,26 @@
       <c r="CH21" t="s">
         <v>3</v>
       </c>
+      <c r="CI21" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ21" t="s">
         <v>3</v>
       </c>
       <c r="CK21" t="s">
         <v>3</v>
       </c>
+      <c r="CL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6834,14 +7077,26 @@
       <c r="CH22" t="s">
         <v>3</v>
       </c>
-      <c r="CJ22" s="3" t="s">
+      <c r="CI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ22" t="s">
         <v>3</v>
       </c>
       <c r="CK22" t="s">
         <v>4</v>
       </c>
+      <c r="CL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>33</v>
       </c>
@@ -7100,14 +7355,26 @@
       <c r="CH23" t="s">
         <v>3</v>
       </c>
+      <c r="CI23" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ23" t="s">
         <v>3</v>
       </c>
       <c r="CK23" t="s">
         <v>3</v>
       </c>
+      <c r="CL23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -7366,14 +7633,26 @@
       <c r="CH24" t="s">
         <v>3</v>
       </c>
+      <c r="CI24" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ24" t="s">
         <v>4</v>
       </c>
       <c r="CK24" t="s">
         <v>3</v>
       </c>
+      <c r="CL24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -7632,14 +7911,26 @@
       <c r="CH25" t="s">
         <v>3</v>
       </c>
+      <c r="CI25" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ25" t="s">
         <v>3</v>
       </c>
       <c r="CK25" t="s">
         <v>3</v>
       </c>
+      <c r="CL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -7898,14 +8189,26 @@
       <c r="CH26" t="s">
         <v>3</v>
       </c>
+      <c r="CI26" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ26" t="s">
         <v>3</v>
       </c>
       <c r="CK26" t="s">
         <v>4</v>
       </c>
+      <c r="CL26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>43</v>
       </c>
@@ -8164,14 +8467,26 @@
       <c r="CH27" t="s">
         <v>4</v>
       </c>
+      <c r="CI27" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ27" t="s">
         <v>3</v>
       </c>
       <c r="CK27" t="s">
         <v>4</v>
       </c>
+      <c r="CL27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -8430,17 +8745,29 @@
       <c r="CH28" t="s">
         <v>3</v>
       </c>
+      <c r="CI28" t="s">
+        <v>3</v>
+      </c>
       <c r="CJ28" t="s">
         <v>4</v>
       </c>
-      <c r="CK28" s="3" t="s">
+      <c r="CK28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL28" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM28" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
       <c r="AH29" s="3"/>
     </row>
-    <row r="32" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
       <c r="AE32" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E3832-04A9-47B7-AAA5-23E650285AB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7645F-160A-40A8-A216-2B6E760BCC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2501" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,13 +939,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CN32"/>
+  <dimension ref="A1:CR31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BL3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CN28" sqref="CN28"/>
+      <selection pane="bottomRight" activeCell="BT1" sqref="BT1:BT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,9 +981,10 @@
     <col min="84" max="87" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="88" max="88" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="89" max="91" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="93" max="96" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1257,8 +1259,20 @@
       <c r="CN1" s="2">
         <v>45446</v>
       </c>
+      <c r="CO1" s="2">
+        <v>45416</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>45417</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>45418</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>45419</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1535,8 +1549,20 @@
       <c r="CN2" t="s">
         <v>47</v>
       </c>
+      <c r="CO2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CQ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CR2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1813,13 +1839,19 @@
       <c r="CN3" t="s">
         <v>3</v>
       </c>
+      <c r="CO3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -2091,13 +2123,19 @@
       <c r="CN4" t="s">
         <v>3</v>
       </c>
+      <c r="CO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -2369,13 +2407,19 @@
       <c r="CN5" t="s">
         <v>3</v>
       </c>
+      <c r="CO5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -2647,13 +2691,19 @@
       <c r="CN6" t="s">
         <v>4</v>
       </c>
+      <c r="CO6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -2925,13 +2975,19 @@
       <c r="CN7" t="s">
         <v>3</v>
       </c>
+      <c r="CO7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
@@ -3203,13 +3259,19 @@
       <c r="CN8" t="s">
         <v>3</v>
       </c>
+      <c r="CO8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -3481,13 +3543,19 @@
       <c r="CN9" t="s">
         <v>3</v>
       </c>
+      <c r="CO9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
@@ -3759,13 +3827,19 @@
       <c r="CN10" t="s">
         <v>3</v>
       </c>
+      <c r="CO10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
@@ -4037,13 +4111,19 @@
       <c r="CN11" t="s">
         <v>4</v>
       </c>
+      <c r="CO11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
@@ -4315,13 +4395,19 @@
       <c r="CN12" t="s">
         <v>4</v>
       </c>
+      <c r="CO12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
@@ -4593,13 +4679,19 @@
       <c r="CN13" t="s">
         <v>3</v>
       </c>
+      <c r="CO13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
@@ -4871,13 +4963,19 @@
       <c r="CN14" t="s">
         <v>3</v>
       </c>
+      <c r="CO14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP14" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
@@ -5149,13 +5247,19 @@
       <c r="CN15" t="s">
         <v>3</v>
       </c>
+      <c r="CO15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
       <c r="B16">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -5427,13 +5531,19 @@
       <c r="CN16" t="s">
         <v>3</v>
       </c>
+      <c r="CO16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
       <c r="B17">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
@@ -5636,7 +5746,7 @@
       <c r="BQ17" t="s">
         <v>3</v>
       </c>
-      <c r="BR17" s="3" t="s">
+      <c r="BR17" s="5" t="s">
         <v>4</v>
       </c>
       <c r="BS17" t="s">
@@ -5705,13 +5815,19 @@
       <c r="CN17" t="s">
         <v>3</v>
       </c>
+      <c r="CO17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -5983,2796 +6099,2578 @@
       <c r="CN18" t="s">
         <v>3</v>
       </c>
+      <c r="CO18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY19" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN19" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>4</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU20" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY20" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>4</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU21" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY21" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
         <v>21</v>
       </c>
-      <c r="C19" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" t="s">
-        <v>3</v>
-      </c>
-      <c r="L19" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" t="s">
-        <v>3</v>
-      </c>
-      <c r="N19" t="s">
-        <v>3</v>
-      </c>
-      <c r="O19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" t="s">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19" t="s">
-        <v>4</v>
-      </c>
-      <c r="U19" t="s">
-        <v>3</v>
-      </c>
-      <c r="V19" t="s">
-        <v>3</v>
-      </c>
-      <c r="W19" t="s">
-        <v>3</v>
-      </c>
-      <c r="X19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT19" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY19" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP19" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY19" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE19" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH19" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM19" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN19" t="s">
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BP22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX22" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY22" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
         <v>22</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>4</v>
-      </c>
-      <c r="O20" t="s">
-        <v>4</v>
-      </c>
-      <c r="P20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>4</v>
-      </c>
-      <c r="R20" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" t="s">
-        <v>3</v>
-      </c>
-      <c r="U20" t="s">
-        <v>3</v>
-      </c>
-      <c r="V20" t="s">
-        <v>4</v>
-      </c>
-      <c r="W20" t="s">
-        <v>3</v>
-      </c>
-      <c r="X20" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AT20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AV20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AW20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AY20" t="s">
-        <v>4</v>
-      </c>
-      <c r="AZ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BB20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BI20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BJ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BL20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BO20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BR20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BX20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BY20" t="s">
-        <v>4</v>
-      </c>
-      <c r="BZ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CA20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CB20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CC20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CE20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CG20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CH20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CJ20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CL20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CM20" t="s">
-        <v>4</v>
-      </c>
-      <c r="CN20" t="s">
-        <v>4</v>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BT23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU23" t="s">
+        <v>4</v>
+      </c>
+      <c r="BV23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY23" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ23" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN23" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP23" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21">
+    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
         <v>23</v>
       </c>
-      <c r="C21" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s">
-        <v>3</v>
-      </c>
-      <c r="T21" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" t="s">
-        <v>3</v>
-      </c>
-      <c r="V21" t="s">
-        <v>3</v>
-      </c>
-      <c r="W21" t="s">
-        <v>3</v>
-      </c>
-      <c r="X21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y21" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW21" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY21" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ21" t="s">
-        <v>4</v>
-      </c>
-      <c r="BK21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU21" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY21" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM21" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN21" t="s">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>4</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BN24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX24" t="s">
+        <v>4</v>
+      </c>
+      <c r="BY24" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CE24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN24" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22">
+    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" t="s">
-        <v>3</v>
-      </c>
-      <c r="P22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" t="s">
-        <v>4</v>
-      </c>
-      <c r="S22" t="s">
-        <v>4</v>
-      </c>
-      <c r="T22" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" t="s">
-        <v>3</v>
-      </c>
-      <c r="W22" t="s">
-        <v>3</v>
-      </c>
-      <c r="X22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW22" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY22" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG22" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO22" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU22" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY22" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE22" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK22" t="s">
-        <v>4</v>
-      </c>
-      <c r="CL22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM22" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN22" t="s">
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT25" t="s">
+        <v>4</v>
+      </c>
+      <c r="BU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY25" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK25" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23">
+    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
         <v>25</v>
       </c>
-      <c r="C23" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" t="s">
-        <v>4</v>
-      </c>
-      <c r="S23" t="s">
-        <v>3</v>
-      </c>
-      <c r="T23" t="s">
-        <v>3</v>
-      </c>
-      <c r="U23" t="s">
-        <v>3</v>
-      </c>
-      <c r="V23" t="s">
-        <v>3</v>
-      </c>
-      <c r="W23" t="s">
-        <v>3</v>
-      </c>
-      <c r="X23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ23" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY23" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BC23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BP23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX23" t="s">
-        <v>4</v>
-      </c>
-      <c r="BY23" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC23" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD23" t="s">
-        <v>4</v>
-      </c>
-      <c r="CE23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM23" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN23" t="s">
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>4</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BG26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BH26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BQ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR26" t="s">
+        <v>4</v>
+      </c>
+      <c r="BS26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CD26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CK26" t="s">
+        <v>4</v>
+      </c>
+      <c r="CL26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CN26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CP26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24">
+    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
         <v>26</v>
       </c>
-      <c r="C24" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>3</v>
-      </c>
-      <c r="R24" t="s">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>3</v>
-      </c>
-      <c r="T24" t="s">
-        <v>3</v>
-      </c>
-      <c r="U24" t="s">
-        <v>3</v>
-      </c>
-      <c r="V24" t="s">
-        <v>3</v>
-      </c>
-      <c r="W24" t="s">
-        <v>3</v>
-      </c>
-      <c r="X24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY24" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BT24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU24" t="s">
-        <v>4</v>
-      </c>
-      <c r="BV24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY24" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ24" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM24" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN24" t="s">
-        <v>4</v>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BC27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BE27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BJ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BK27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BL27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BN27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BP27" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BR27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BS27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BT27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BV27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BW27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BX27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BY27" t="s">
+        <v>3</v>
+      </c>
+      <c r="BZ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CC27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CD27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CE27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CJ27" t="s">
+        <v>4</v>
+      </c>
+      <c r="CK27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CL27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CM27" t="s">
+        <v>4</v>
+      </c>
+      <c r="CN27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CO27" t="s">
+        <v>4</v>
+      </c>
+      <c r="CP27" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" t="s">
-        <v>3</v>
-      </c>
-      <c r="J25" t="s">
-        <v>3</v>
-      </c>
-      <c r="K25" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" t="s">
-        <v>4</v>
-      </c>
-      <c r="N25" t="s">
-        <v>3</v>
-      </c>
-      <c r="O25" t="s">
-        <v>3</v>
-      </c>
-      <c r="P25" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>4</v>
-      </c>
-      <c r="R25" t="s">
-        <v>4</v>
-      </c>
-      <c r="S25" t="s">
-        <v>3</v>
-      </c>
-      <c r="T25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U25" t="s">
-        <v>3</v>
-      </c>
-      <c r="V25" t="s">
-        <v>3</v>
-      </c>
-      <c r="W25" t="s">
-        <v>4</v>
-      </c>
-      <c r="X25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AF25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT25" t="s">
-        <v>4</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY25" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BE25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BF25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BN25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BW25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX25" t="s">
-        <v>4</v>
-      </c>
-      <c r="BY25" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC25" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD25" t="s">
-        <v>4</v>
-      </c>
-      <c r="CE25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM25" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN25" t="s">
-        <v>4</v>
-      </c>
+    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AH28" s="3"/>
     </row>
-    <row r="26" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" t="s">
-        <v>3</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="U26" t="s">
-        <v>3</v>
-      </c>
-      <c r="V26" t="s">
-        <v>3</v>
-      </c>
-      <c r="W26" t="s">
-        <v>3</v>
-      </c>
-      <c r="X26" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY26" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BD26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT26" t="s">
-        <v>4</v>
-      </c>
-      <c r="BU26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK26" t="s">
-        <v>4</v>
-      </c>
-      <c r="CL26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM26" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B27">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" t="s">
-        <v>4</v>
-      </c>
-      <c r="M27" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" t="s">
-        <v>4</v>
-      </c>
-      <c r="O27" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s">
-        <v>3</v>
-      </c>
-      <c r="T27" t="s">
-        <v>4</v>
-      </c>
-      <c r="U27" t="s">
-        <v>3</v>
-      </c>
-      <c r="V27" t="s">
-        <v>3</v>
-      </c>
-      <c r="W27" t="s">
-        <v>4</v>
-      </c>
-      <c r="X27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y27" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AO27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ27" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AX27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>4</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BG27" t="s">
-        <v>4</v>
-      </c>
-      <c r="BH27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BM27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BQ27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR27" t="s">
-        <v>4</v>
-      </c>
-      <c r="BS27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY27" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC27" t="s">
-        <v>4</v>
-      </c>
-      <c r="CD27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE27" t="s">
-        <v>4</v>
-      </c>
-      <c r="CF27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH27" t="s">
-        <v>4</v>
-      </c>
-      <c r="CI27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CK27" t="s">
-        <v>4</v>
-      </c>
-      <c r="CL27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM27" t="s">
-        <v>3</v>
-      </c>
-      <c r="CN27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28" t="s">
-        <v>3</v>
-      </c>
-      <c r="I28" t="s">
-        <v>3</v>
-      </c>
-      <c r="J28" t="s">
-        <v>3</v>
-      </c>
-      <c r="K28" t="s">
-        <v>3</v>
-      </c>
-      <c r="L28" t="s">
-        <v>3</v>
-      </c>
-      <c r="M28" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" t="s">
-        <v>3</v>
-      </c>
-      <c r="P28" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>3</v>
-      </c>
-      <c r="R28" t="s">
-        <v>3</v>
-      </c>
-      <c r="S28" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" t="s">
-        <v>3</v>
-      </c>
-      <c r="U28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W28" t="s">
-        <v>3</v>
-      </c>
-      <c r="X28" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>3</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AN28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AS28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AT28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AU28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AV28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AY28" t="s">
-        <v>3</v>
-      </c>
-      <c r="AZ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BA28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BB28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BD28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BE28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF28" t="s">
-        <v>4</v>
-      </c>
-      <c r="BG28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BH28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BI28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BJ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BK28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BL28" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BO28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BP28" t="s">
-        <v>4</v>
-      </c>
-      <c r="BQ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BR28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BS28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BT28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BU28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BV28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BW28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BX28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BY28" t="s">
-        <v>3</v>
-      </c>
-      <c r="BZ28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CA28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CB28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CC28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CD28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CE28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CF28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CG28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CH28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CI28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CJ28" t="s">
-        <v>4</v>
-      </c>
-      <c r="CK28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CL28" t="s">
-        <v>3</v>
-      </c>
-      <c r="CM28" t="s">
-        <v>4</v>
-      </c>
-      <c r="CN28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="AH29" s="3"/>
-    </row>
-    <row r="32" spans="1:92" x14ac:dyDescent="0.25">
-      <c r="AE32" s="3"/>
+    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+      <c r="AE31" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B28">
-    <sortCondition ref="B2:B28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:B27">
+    <sortCondition ref="B2:B27"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C7645F-160A-40A8-A216-2B6E760BCC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51B5BA-81A4-433E-A31D-27400013A6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,13 +938,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CR31"/>
+  <dimension ref="A1:CS31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BM3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BT1" sqref="BT1:BT1048576"/>
+      <selection pane="bottomRight" activeCell="CS27" sqref="CS27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,7 +983,7 @@
     <col min="93" max="96" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1271,8 +1270,11 @@
       <c r="CR1" s="2">
         <v>45419</v>
       </c>
+      <c r="CS1" s="2">
+        <v>45453</v>
+      </c>
     </row>
-    <row r="2" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1561,8 +1563,11 @@
       <c r="CR2" t="s">
         <v>50</v>
       </c>
+      <c r="CS2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1845,8 +1850,14 @@
       <c r="CP3" t="s">
         <v>3</v>
       </c>
+      <c r="CR3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2129,8 +2140,14 @@
       <c r="CP4" t="s">
         <v>3</v>
       </c>
+      <c r="CR4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2413,8 +2430,14 @@
       <c r="CP5" t="s">
         <v>3</v>
       </c>
+      <c r="CR5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2697,8 +2720,14 @@
       <c r="CP6" t="s">
         <v>4</v>
       </c>
+      <c r="CR6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2981,8 +3010,14 @@
       <c r="CP7" t="s">
         <v>3</v>
       </c>
+      <c r="CR7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3265,8 +3300,14 @@
       <c r="CP8" t="s">
         <v>3</v>
       </c>
+      <c r="CR8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3549,8 +3590,14 @@
       <c r="CP9" t="s">
         <v>3</v>
       </c>
+      <c r="CR9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3833,8 +3880,14 @@
       <c r="CP10" t="s">
         <v>3</v>
       </c>
+      <c r="CR10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4117,8 +4170,14 @@
       <c r="CP11" t="s">
         <v>3</v>
       </c>
+      <c r="CR11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4401,8 +4460,14 @@
       <c r="CP12" t="s">
         <v>4</v>
       </c>
+      <c r="CR12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4685,8 +4750,14 @@
       <c r="CP13" t="s">
         <v>3</v>
       </c>
+      <c r="CR13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4969,8 +5040,14 @@
       <c r="CP14" t="s">
         <v>4</v>
       </c>
+      <c r="CR14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5253,8 +5330,14 @@
       <c r="CP15" t="s">
         <v>3</v>
       </c>
+      <c r="CR15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:96" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5537,8 +5620,14 @@
       <c r="CP16" t="s">
         <v>3</v>
       </c>
+      <c r="CR16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5746,7 +5835,7 @@
       <c r="BQ17" t="s">
         <v>3</v>
       </c>
-      <c r="BR17" s="5" t="s">
+      <c r="BR17" t="s">
         <v>4</v>
       </c>
       <c r="BS17" t="s">
@@ -5821,8 +5910,14 @@
       <c r="CP17" t="s">
         <v>4</v>
       </c>
+      <c r="CR17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6105,8 +6200,14 @@
       <c r="CP18" t="s">
         <v>3</v>
       </c>
+      <c r="CR18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6389,8 +6490,14 @@
       <c r="CP19" t="s">
         <v>4</v>
       </c>
+      <c r="CR19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6673,8 +6780,14 @@
       <c r="CP20" t="s">
         <v>3</v>
       </c>
+      <c r="CR20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -6957,8 +7070,14 @@
       <c r="CP21" t="s">
         <v>3</v>
       </c>
+      <c r="CR21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CS21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7241,8 +7360,14 @@
       <c r="CP22" t="s">
         <v>4</v>
       </c>
+      <c r="CR22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7525,8 +7650,14 @@
       <c r="CP23" t="s">
         <v>3</v>
       </c>
+      <c r="CR23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -7809,8 +7940,14 @@
       <c r="CP24" t="s">
         <v>3</v>
       </c>
+      <c r="CR24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8093,8 +8230,14 @@
       <c r="CP25" t="s">
         <v>3</v>
       </c>
+      <c r="CR25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -8377,8 +8520,14 @@
       <c r="CP26" t="s">
         <v>3</v>
       </c>
+      <c r="CR26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -8661,11 +8810,17 @@
       <c r="CP27" t="s">
         <v>3</v>
       </c>
+      <c r="CR27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CS27" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F51B5BA-81A4-433E-A31D-27400013A6D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97F1CA-7B6E-4C2F-A893-7CD8D00302D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2515" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,13 +939,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CS31"/>
+  <dimension ref="A1:CW31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BN3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CS27" sqref="CS27"/>
+      <selection pane="bottomRight" activeCell="CT23" sqref="CT23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +984,7 @@
     <col min="93" max="96" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1273,8 +1274,20 @@
       <c r="CS1" s="2">
         <v>45453</v>
       </c>
+      <c r="CT1" s="2">
+        <v>45454</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>45455</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>45456</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>45457</v>
+      </c>
     </row>
-    <row r="2" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1566,8 +1579,20 @@
       <c r="CS2" t="s">
         <v>47</v>
       </c>
+      <c r="CT2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CU2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>49</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1850,14 +1875,20 @@
       <c r="CP3" t="s">
         <v>3</v>
       </c>
+      <c r="CQ3" t="s">
+        <v>3</v>
+      </c>
       <c r="CR3" t="s">
         <v>3</v>
       </c>
       <c r="CS3" t="s">
         <v>3</v>
       </c>
+      <c r="CT3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2140,14 +2171,20 @@
       <c r="CP4" t="s">
         <v>3</v>
       </c>
+      <c r="CQ4" t="s">
+        <v>3</v>
+      </c>
       <c r="CR4" t="s">
         <v>3</v>
       </c>
       <c r="CS4" t="s">
         <v>3</v>
       </c>
+      <c r="CT4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2430,14 +2467,20 @@
       <c r="CP5" t="s">
         <v>3</v>
       </c>
+      <c r="CQ5" t="s">
+        <v>3</v>
+      </c>
       <c r="CR5" t="s">
         <v>3</v>
       </c>
       <c r="CS5" t="s">
         <v>3</v>
       </c>
+      <c r="CT5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2720,14 +2763,20 @@
       <c r="CP6" t="s">
         <v>4</v>
       </c>
+      <c r="CQ6" t="s">
+        <v>3</v>
+      </c>
       <c r="CR6" t="s">
         <v>3</v>
       </c>
       <c r="CS6" t="s">
         <v>3</v>
       </c>
+      <c r="CT6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3010,14 +3059,20 @@
       <c r="CP7" t="s">
         <v>3</v>
       </c>
+      <c r="CQ7" t="s">
+        <v>3</v>
+      </c>
       <c r="CR7" t="s">
         <v>3</v>
       </c>
       <c r="CS7" t="s">
         <v>3</v>
       </c>
+      <c r="CT7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3300,14 +3355,20 @@
       <c r="CP8" t="s">
         <v>3</v>
       </c>
+      <c r="CQ8" t="s">
+        <v>3</v>
+      </c>
       <c r="CR8" t="s">
         <v>3</v>
       </c>
       <c r="CS8" t="s">
         <v>3</v>
       </c>
+      <c r="CT8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3590,14 +3651,20 @@
       <c r="CP9" t="s">
         <v>3</v>
       </c>
+      <c r="CQ9" t="s">
+        <v>3</v>
+      </c>
       <c r="CR9" t="s">
         <v>3</v>
       </c>
       <c r="CS9" t="s">
         <v>3</v>
       </c>
+      <c r="CT9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3880,14 +3947,20 @@
       <c r="CP10" t="s">
         <v>3</v>
       </c>
+      <c r="CQ10" t="s">
+        <v>3</v>
+      </c>
       <c r="CR10" t="s">
         <v>3</v>
       </c>
       <c r="CS10" t="s">
         <v>3</v>
       </c>
+      <c r="CT10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4170,14 +4243,20 @@
       <c r="CP11" t="s">
         <v>3</v>
       </c>
+      <c r="CQ11" t="s">
+        <v>3</v>
+      </c>
       <c r="CR11" t="s">
         <v>3</v>
       </c>
       <c r="CS11" t="s">
         <v>3</v>
       </c>
+      <c r="CT11" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="12" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4460,14 +4539,20 @@
       <c r="CP12" t="s">
         <v>4</v>
       </c>
+      <c r="CQ12" t="s">
+        <v>4</v>
+      </c>
       <c r="CR12" t="s">
         <v>4</v>
       </c>
       <c r="CS12" t="s">
         <v>4</v>
       </c>
+      <c r="CT12" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="13" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4750,14 +4835,20 @@
       <c r="CP13" t="s">
         <v>3</v>
       </c>
+      <c r="CQ13" t="s">
+        <v>3</v>
+      </c>
       <c r="CR13" t="s">
         <v>3</v>
       </c>
       <c r="CS13" t="s">
         <v>3</v>
       </c>
+      <c r="CT13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5040,14 +5131,20 @@
       <c r="CP14" t="s">
         <v>4</v>
       </c>
+      <c r="CQ14" t="s">
+        <v>3</v>
+      </c>
       <c r="CR14" t="s">
         <v>3</v>
       </c>
       <c r="CS14" t="s">
         <v>3</v>
       </c>
+      <c r="CT14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5330,14 +5427,20 @@
       <c r="CP15" t="s">
         <v>3</v>
       </c>
+      <c r="CQ15" t="s">
+        <v>3</v>
+      </c>
       <c r="CR15" t="s">
         <v>3</v>
       </c>
       <c r="CS15" t="s">
         <v>3</v>
       </c>
+      <c r="CT15" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="16" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5620,14 +5723,20 @@
       <c r="CP16" t="s">
         <v>3</v>
       </c>
+      <c r="CQ16" t="s">
+        <v>3</v>
+      </c>
       <c r="CR16" t="s">
         <v>3</v>
       </c>
       <c r="CS16" t="s">
         <v>3</v>
       </c>
+      <c r="CT16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5910,14 +6019,20 @@
       <c r="CP17" t="s">
         <v>4</v>
       </c>
+      <c r="CQ17" t="s">
+        <v>3</v>
+      </c>
       <c r="CR17" t="s">
         <v>3</v>
       </c>
       <c r="CS17" t="s">
         <v>3</v>
       </c>
+      <c r="CT17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6200,14 +6315,20 @@
       <c r="CP18" t="s">
         <v>3</v>
       </c>
+      <c r="CQ18" t="s">
+        <v>3</v>
+      </c>
       <c r="CR18" t="s">
         <v>3</v>
       </c>
       <c r="CS18" t="s">
         <v>3</v>
       </c>
+      <c r="CT18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6490,14 +6611,20 @@
       <c r="CP19" t="s">
         <v>4</v>
       </c>
+      <c r="CQ19" t="s">
+        <v>3</v>
+      </c>
       <c r="CR19" t="s">
         <v>3</v>
       </c>
       <c r="CS19" t="s">
         <v>3</v>
       </c>
+      <c r="CT19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6780,14 +6907,20 @@
       <c r="CP20" t="s">
         <v>3</v>
       </c>
+      <c r="CQ20" t="s">
+        <v>3</v>
+      </c>
       <c r="CR20" t="s">
         <v>3</v>
       </c>
       <c r="CS20" t="s">
         <v>3</v>
       </c>
+      <c r="CT20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7070,14 +7203,20 @@
       <c r="CP21" t="s">
         <v>3</v>
       </c>
+      <c r="CQ21" t="s">
+        <v>3</v>
+      </c>
       <c r="CR21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="CS21" t="s">
         <v>4</v>
       </c>
+      <c r="CT21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7360,14 +7499,20 @@
       <c r="CP22" t="s">
         <v>4</v>
       </c>
+      <c r="CQ22" t="s">
+        <v>3</v>
+      </c>
       <c r="CR22" t="s">
         <v>3</v>
       </c>
       <c r="CS22" t="s">
         <v>3</v>
       </c>
+      <c r="CT22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7650,14 +7795,20 @@
       <c r="CP23" t="s">
         <v>3</v>
       </c>
+      <c r="CQ23" t="s">
+        <v>3</v>
+      </c>
       <c r="CR23" t="s">
         <v>3</v>
       </c>
       <c r="CS23" t="s">
         <v>3</v>
       </c>
+      <c r="CT23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -7940,14 +8091,20 @@
       <c r="CP24" t="s">
         <v>3</v>
       </c>
+      <c r="CQ24" t="s">
+        <v>3</v>
+      </c>
       <c r="CR24" t="s">
         <v>3</v>
       </c>
       <c r="CS24" t="s">
         <v>3</v>
       </c>
+      <c r="CT24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8230,14 +8387,20 @@
       <c r="CP25" t="s">
         <v>3</v>
       </c>
+      <c r="CQ25" t="s">
+        <v>3</v>
+      </c>
       <c r="CR25" t="s">
         <v>3</v>
       </c>
       <c r="CS25" t="s">
         <v>3</v>
       </c>
+      <c r="CT25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -8520,14 +8683,20 @@
       <c r="CP26" t="s">
         <v>3</v>
       </c>
+      <c r="CQ26" t="s">
+        <v>3</v>
+      </c>
       <c r="CR26" t="s">
         <v>3</v>
       </c>
       <c r="CS26" t="s">
         <v>3</v>
       </c>
+      <c r="CT26" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="27" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -8810,17 +8979,23 @@
       <c r="CP27" t="s">
         <v>3</v>
       </c>
+      <c r="CQ27" t="s">
+        <v>3</v>
+      </c>
       <c r="CR27" t="s">
         <v>3</v>
       </c>
-      <c r="CS27" s="3" t="s">
+      <c r="CS27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT27" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:97" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C97F1CA-7B6E-4C2F-A893-7CD8D00302D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE72DE-4F42-4EE5-9685-D0DA6AF3378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2569" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,7 +944,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CT23" sqref="CT23"/>
+      <selection pane="bottomRight" activeCell="CX6" sqref="CX6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1887,6 +1886,12 @@
       <c r="CT3" t="s">
         <v>3</v>
       </c>
+      <c r="CU3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2183,6 +2188,12 @@
       <c r="CT4" t="s">
         <v>3</v>
       </c>
+      <c r="CU4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2479,6 +2490,12 @@
       <c r="CT5" t="s">
         <v>3</v>
       </c>
+      <c r="CU5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2775,6 +2792,12 @@
       <c r="CT6" t="s">
         <v>4</v>
       </c>
+      <c r="CU6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3071,6 +3094,12 @@
       <c r="CT7" t="s">
         <v>3</v>
       </c>
+      <c r="CU7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3367,6 +3396,12 @@
       <c r="CT8" t="s">
         <v>3</v>
       </c>
+      <c r="CU8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3663,6 +3698,12 @@
       <c r="CT9" t="s">
         <v>3</v>
       </c>
+      <c r="CU9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3959,6 +4000,12 @@
       <c r="CT10" t="s">
         <v>3</v>
       </c>
+      <c r="CU10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4255,6 +4302,12 @@
       <c r="CT11" t="s">
         <v>4</v>
       </c>
+      <c r="CU11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV11" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4551,6 +4604,12 @@
       <c r="CT12" t="s">
         <v>4</v>
       </c>
+      <c r="CU12" t="s">
+        <v>4</v>
+      </c>
+      <c r="CV12" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -4847,6 +4906,12 @@
       <c r="CT13" t="s">
         <v>3</v>
       </c>
+      <c r="CU13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5143,6 +5208,12 @@
       <c r="CT14" t="s">
         <v>3</v>
       </c>
+      <c r="CU14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5439,6 +5510,12 @@
       <c r="CT15" t="s">
         <v>4</v>
       </c>
+      <c r="CU15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:101" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -5735,8 +5812,14 @@
       <c r="CT16" t="s">
         <v>3</v>
       </c>
+      <c r="CU16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6031,8 +6114,14 @@
       <c r="CT17" t="s">
         <v>3</v>
       </c>
+      <c r="CU17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6327,8 +6416,14 @@
       <c r="CT18" t="s">
         <v>3</v>
       </c>
+      <c r="CU18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6623,8 +6718,14 @@
       <c r="CT19" t="s">
         <v>3</v>
       </c>
+      <c r="CU19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -6919,8 +7020,14 @@
       <c r="CT20" t="s">
         <v>3</v>
       </c>
+      <c r="CU20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7215,8 +7322,14 @@
       <c r="CT21" t="s">
         <v>3</v>
       </c>
+      <c r="CU21" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7511,8 +7624,14 @@
       <c r="CT22" t="s">
         <v>3</v>
       </c>
+      <c r="CU22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7807,8 +7926,14 @@
       <c r="CT23" t="s">
         <v>3</v>
       </c>
+      <c r="CU23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -8103,8 +8228,14 @@
       <c r="CT24" t="s">
         <v>3</v>
       </c>
+      <c r="CU24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8399,8 +8530,14 @@
       <c r="CT25" t="s">
         <v>3</v>
       </c>
+      <c r="CU25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -8695,8 +8832,14 @@
       <c r="CT26" t="s">
         <v>4</v>
       </c>
+      <c r="CU26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -8985,17 +9128,23 @@
       <c r="CR27" t="s">
         <v>3</v>
       </c>
-      <c r="CS27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="CT27" s="5" t="s">
+      <c r="CS27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CT27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CU27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CV27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:98" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:100" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CE72DE-4F42-4EE5-9685-D0DA6AF3378D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F26D9D-C0DD-4FD9-9A52-01829E6067FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -938,13 +938,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CW31"/>
+  <dimension ref="A1:CX31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX6" sqref="CX6"/>
+      <selection pane="bottomRight" activeCell="CX27" sqref="CX27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +983,7 @@
     <col min="93" max="96" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1285,8 +1285,11 @@
       <c r="CW1" s="2">
         <v>45457</v>
       </c>
+      <c r="CX1" s="2">
+        <v>45460</v>
+      </c>
     </row>
-    <row r="2" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1590,8 +1593,11 @@
       <c r="CW2" t="s">
         <v>50</v>
       </c>
+      <c r="CX2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1892,8 +1898,14 @@
       <c r="CV3" t="s">
         <v>3</v>
       </c>
+      <c r="CW3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2194,8 +2206,14 @@
       <c r="CV4" t="s">
         <v>3</v>
       </c>
+      <c r="CW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2496,8 +2514,14 @@
       <c r="CV5" t="s">
         <v>3</v>
       </c>
+      <c r="CW5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2798,8 +2822,14 @@
       <c r="CV6" t="s">
         <v>3</v>
       </c>
+      <c r="CW6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3100,8 +3130,14 @@
       <c r="CV7" t="s">
         <v>3</v>
       </c>
+      <c r="CW7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX7" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3402,8 +3438,14 @@
       <c r="CV8" t="s">
         <v>3</v>
       </c>
+      <c r="CW8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3704,8 +3746,14 @@
       <c r="CV9" t="s">
         <v>3</v>
       </c>
+      <c r="CW9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4006,8 +4054,14 @@
       <c r="CV10" t="s">
         <v>3</v>
       </c>
+      <c r="CW10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4308,8 +4362,14 @@
       <c r="CV11" t="s">
         <v>3</v>
       </c>
+      <c r="CW11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4610,8 +4670,14 @@
       <c r="CV12" t="s">
         <v>4</v>
       </c>
+      <c r="CW12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4912,8 +4978,14 @@
       <c r="CV13" t="s">
         <v>3</v>
       </c>
+      <c r="CW13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5214,8 +5286,14 @@
       <c r="CV14" t="s">
         <v>3</v>
       </c>
+      <c r="CW14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5516,8 +5594,14 @@
       <c r="CV15" t="s">
         <v>3</v>
       </c>
+      <c r="CW15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:101" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5818,8 +5902,14 @@
       <c r="CV16" t="s">
         <v>3</v>
       </c>
+      <c r="CW16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6120,8 +6210,14 @@
       <c r="CV17" t="s">
         <v>4</v>
       </c>
+      <c r="CW17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6422,8 +6518,14 @@
       <c r="CV18" t="s">
         <v>3</v>
       </c>
+      <c r="CW18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6724,8 +6826,14 @@
       <c r="CV19" t="s">
         <v>3</v>
       </c>
+      <c r="CW19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7026,8 +7134,14 @@
       <c r="CV20" t="s">
         <v>3</v>
       </c>
+      <c r="CW20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7328,8 +7442,14 @@
       <c r="CV21" t="s">
         <v>3</v>
       </c>
+      <c r="CW21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CX21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7630,8 +7750,14 @@
       <c r="CV22" t="s">
         <v>3</v>
       </c>
+      <c r="CW22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -7932,8 +8058,14 @@
       <c r="CV23" t="s">
         <v>3</v>
       </c>
+      <c r="CW23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -8234,8 +8366,14 @@
       <c r="CV24" t="s">
         <v>3</v>
       </c>
+      <c r="CW24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX24" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8536,8 +8674,14 @@
       <c r="CV25" t="s">
         <v>3</v>
       </c>
+      <c r="CW25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -8838,8 +8982,14 @@
       <c r="CV26" t="s">
         <v>3</v>
       </c>
+      <c r="CW26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -9140,11 +9290,17 @@
       <c r="CV27" t="s">
         <v>3</v>
       </c>
+      <c r="CW27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CX27" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:100" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F26D9D-C0DD-4FD9-9A52-01829E6067FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF130AFB-56CD-4CA9-881A-FC709E494BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,10 +939,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:CX31"/>
+  <dimension ref="A1:DB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BU3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="CX27" sqref="CX27"/>
@@ -983,7 +984,7 @@
     <col min="93" max="96" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1288,8 +1289,20 @@
       <c r="CX1" s="2">
         <v>45460</v>
       </c>
+      <c r="CY1" s="2">
+        <v>45461</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>45462</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>45463</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>45464</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1596,10 +1609,22 @@
       <c r="CX2" t="s">
         <v>47</v>
       </c>
+      <c r="CY2" t="s">
+        <v>48</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>49</v>
+      </c>
+      <c r="DA2" t="s">
+        <v>49</v>
+      </c>
+      <c r="DB2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1904,8 +1929,14 @@
       <c r="CX3" t="s">
         <v>3</v>
       </c>
+      <c r="CY3" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2212,8 +2243,14 @@
       <c r="CX4" t="s">
         <v>3</v>
       </c>
+      <c r="CY4" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2520,8 +2557,14 @@
       <c r="CX5" t="s">
         <v>3</v>
       </c>
+      <c r="CY5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2828,8 +2871,14 @@
       <c r="CX6" t="s">
         <v>3</v>
       </c>
+      <c r="CY6" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -3136,8 +3185,14 @@
       <c r="CX7" t="s">
         <v>4</v>
       </c>
+      <c r="CY7" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -3444,8 +3499,14 @@
       <c r="CX8" t="s">
         <v>3</v>
       </c>
+      <c r="CY8" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ8" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3752,8 +3813,14 @@
       <c r="CX9" t="s">
         <v>3</v>
       </c>
+      <c r="CY9" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ9" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4060,8 +4127,14 @@
       <c r="CX10" t="s">
         <v>3</v>
       </c>
+      <c r="CY10" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ10" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4368,8 +4441,14 @@
       <c r="CX11" t="s">
         <v>3</v>
       </c>
+      <c r="CY11" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ11" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4676,8 +4755,14 @@
       <c r="CX12" t="s">
         <v>3</v>
       </c>
+      <c r="CY12" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ12" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="13" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4984,8 +5069,14 @@
       <c r="CX13" t="s">
         <v>3</v>
       </c>
+      <c r="CY13" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ13" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="14" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -5292,8 +5383,14 @@
       <c r="CX14" t="s">
         <v>3</v>
       </c>
+      <c r="CY14" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ14" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="15" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -5600,8 +5697,14 @@
       <c r="CX15" t="s">
         <v>3</v>
       </c>
+      <c r="CY15" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ15" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="16" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -5908,8 +6011,14 @@
       <c r="CX16" t="s">
         <v>3</v>
       </c>
+      <c r="CY16" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6216,8 +6325,14 @@
       <c r="CX17" t="s">
         <v>3</v>
       </c>
+      <c r="CY17" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6524,8 +6639,14 @@
       <c r="CX18" t="s">
         <v>3</v>
       </c>
+      <c r="CY18" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6832,8 +6953,14 @@
       <c r="CX19" t="s">
         <v>4</v>
       </c>
+      <c r="CY19" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7140,8 +7267,14 @@
       <c r="CX20" t="s">
         <v>3</v>
       </c>
+      <c r="CY20" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7448,8 +7581,14 @@
       <c r="CX21" t="s">
         <v>4</v>
       </c>
+      <c r="CY21" t="s">
+        <v>4</v>
+      </c>
+      <c r="CZ21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7756,8 +7895,14 @@
       <c r="CX22" t="s">
         <v>3</v>
       </c>
+      <c r="CY22" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8064,8 +8209,14 @@
       <c r="CX23" t="s">
         <v>3</v>
       </c>
+      <c r="CY23" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -8372,8 +8523,14 @@
       <c r="CX24" t="s">
         <v>4</v>
       </c>
+      <c r="CY24" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8680,8 +8837,14 @@
       <c r="CX25" t="s">
         <v>3</v>
       </c>
+      <c r="CY25" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -8988,8 +9151,14 @@
       <c r="CX26" t="s">
         <v>3</v>
       </c>
+      <c r="CY26" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -9293,14 +9462,20 @@
       <c r="CW27" t="s">
         <v>3</v>
       </c>
-      <c r="CX27" s="3" t="s">
+      <c r="CX27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="CY27" t="s">
+        <v>3</v>
+      </c>
+      <c r="CZ27" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:102" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF130AFB-56CD-4CA9-881A-FC709E494BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835F1A7-03AF-447D-B47D-A3505D6139EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,7 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,7 +944,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX27" sqref="CX27"/>
+      <selection pane="bottomRight" activeCell="CW15" sqref="CW15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9462,7 +9461,7 @@
       <c r="CW27" t="s">
         <v>3</v>
       </c>
-      <c r="CX27" s="5" t="s">
+      <c r="CX27" t="s">
         <v>3</v>
       </c>
       <c r="CY27" t="s">

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8835F1A7-03AF-447D-B47D-A3505D6139EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD34CD-3B15-4E19-9BEE-03385D7E4EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="55">
   <si>
     <t>Alunos</t>
   </si>
@@ -941,10 +941,10 @@
   <dimension ref="A1:DB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CW15" sqref="CW15"/>
+      <selection pane="bottomRight" activeCell="CX13" sqref="CX13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1934,6 +1934,9 @@
       <c r="CZ3" t="s">
         <v>3</v>
       </c>
+      <c r="DA3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2248,6 +2251,9 @@
       <c r="CZ4" t="s">
         <v>3</v>
       </c>
+      <c r="DA4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2562,6 +2568,9 @@
       <c r="CZ5" t="s">
         <v>3</v>
       </c>
+      <c r="DA5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -2876,6 +2885,9 @@
       <c r="CZ6" t="s">
         <v>3</v>
       </c>
+      <c r="DA6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3190,6 +3202,9 @@
       <c r="CZ7" t="s">
         <v>3</v>
       </c>
+      <c r="DA7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3504,6 +3519,9 @@
       <c r="CZ8" t="s">
         <v>3</v>
       </c>
+      <c r="DA8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3818,6 +3836,9 @@
       <c r="CZ9" t="s">
         <v>3</v>
       </c>
+      <c r="DA9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4132,6 +4153,9 @@
       <c r="CZ10" t="s">
         <v>3</v>
       </c>
+      <c r="DA10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4446,6 +4470,9 @@
       <c r="CZ11" t="s">
         <v>3</v>
       </c>
+      <c r="DA11" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -4760,6 +4787,9 @@
       <c r="CZ12" t="s">
         <v>3</v>
       </c>
+      <c r="DA12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -5074,6 +5104,9 @@
       <c r="CZ13" t="s">
         <v>3</v>
       </c>
+      <c r="DA13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -5388,6 +5421,9 @@
       <c r="CZ14" t="s">
         <v>3</v>
       </c>
+      <c r="DA14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -5702,6 +5738,9 @@
       <c r="CZ15" t="s">
         <v>3</v>
       </c>
+      <c r="DA15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -6016,8 +6055,11 @@
       <c r="CZ16" t="s">
         <v>3</v>
       </c>
+      <c r="DA16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -6330,8 +6372,11 @@
       <c r="CZ17" t="s">
         <v>4</v>
       </c>
+      <c r="DA17" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="18" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -6644,8 +6689,11 @@
       <c r="CZ18" t="s">
         <v>3</v>
       </c>
+      <c r="DA18" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="19" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -6958,8 +7006,11 @@
       <c r="CZ19" t="s">
         <v>3</v>
       </c>
+      <c r="DA19" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="20" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -7272,8 +7323,11 @@
       <c r="CZ20" t="s">
         <v>3</v>
       </c>
+      <c r="DA20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -7586,8 +7640,11 @@
       <c r="CZ21" t="s">
         <v>4</v>
       </c>
+      <c r="DA21" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -7900,8 +7957,11 @@
       <c r="CZ22" t="s">
         <v>3</v>
       </c>
+      <c r="DA22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -8214,8 +8274,11 @@
       <c r="CZ23" t="s">
         <v>3</v>
       </c>
+      <c r="DA23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>36</v>
       </c>
@@ -8528,8 +8591,11 @@
       <c r="CZ24" t="s">
         <v>3</v>
       </c>
+      <c r="DA24" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="25" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -8842,8 +8908,11 @@
       <c r="CZ25" t="s">
         <v>3</v>
       </c>
+      <c r="DA25" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -9156,8 +9225,11 @@
       <c r="CZ26" t="s">
         <v>3</v>
       </c>
+      <c r="DA26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -9470,11 +9542,14 @@
       <c r="CZ27" t="s">
         <v>3</v>
       </c>
+      <c r="DA27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:104" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>

--- a/ds/2des/frequencia.xlsx
+++ b/ds/2des/frequencia.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellington\senai2024\ds\2des\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wellifabio\senai2024\ds\2des\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD34CD-3B15-4E19-9BEE-03385D7E4EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5221263-1CEC-4445-A063-0064611756B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="todos" sheetId="2" r:id="rId1"/>
-    <sheet name="Chamada" sheetId="1" r:id="rId2"/>
+    <sheet name="Chamada" sheetId="1" r:id="rId1"/>
+    <sheet name="INDMO" sheetId="3" r:id="rId2"/>
+    <sheet name="PWBE" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4410" uniqueCount="43">
   <si>
     <t>Alunos</t>
   </si>
@@ -54,22 +55,13 @@
     <t>F</t>
   </si>
   <si>
-    <t>Felipe Augusto dos Santos</t>
-  </si>
-  <si>
     <t>Mirella França de Almeida</t>
   </si>
   <si>
     <t>Carlos Henrique de Oliveira Siqueira</t>
   </si>
   <si>
-    <t>Carlos Henrique Jesus de Almeida Filho</t>
-  </si>
-  <si>
     <t>Cicero Ruan Soares Baborsa</t>
-  </si>
-  <si>
-    <t>Eretz Israel Colares Caldas Maciel</t>
   </si>
   <si>
     <t>Erick da Silva de Jesus</t>
@@ -78,16 +70,7 @@
     <t>João Vitor Castro Viana Marques</t>
   </si>
   <si>
-    <t>Denyjan Magno Santos da Silva</t>
-  </si>
-  <si>
-    <t>Alef Santos da Costa</t>
-  </si>
-  <si>
     <t>Alefe de Magalhães Vigatto</t>
-  </si>
-  <si>
-    <t>Allan Diego Fernandes da Silva Parreira</t>
   </si>
   <si>
     <t>Ana Clara Ortiz Ochner</t>
@@ -111,40 +94,19 @@
     <t>Guilherme Carvalho de Oliveira</t>
   </si>
   <si>
-    <t>Halina Yelena Volkov</t>
-  </si>
-  <si>
     <t>Igor Henrique Gonçalves</t>
-  </si>
-  <si>
-    <t>Isac Catarino Natividade</t>
-  </si>
-  <si>
-    <t>Isamara Lorraine Bento</t>
   </si>
   <si>
     <t>Jaqueline de Faria Rodrigues</t>
   </si>
   <si>
-    <t>Karina Corrêa Shifferli Santos</t>
-  </si>
-  <si>
     <t>Leticia Aparecido Hofman de Souza</t>
-  </si>
-  <si>
-    <t>Maria Cecília Evangelista Oliveira</t>
-  </si>
-  <si>
-    <t>Maria Eduarda da Silva Moraes</t>
   </si>
   <si>
     <t>Otávio Bassi de Freitas</t>
   </si>
   <si>
     <t>Otavio Lima Bueno</t>
-  </si>
-  <si>
-    <t>Paulo Otávio Rodrigues Silva</t>
   </si>
   <si>
     <t>Pedro Henrique Pereira Sanches</t>
@@ -154,12 +116,6 @@
   </si>
   <si>
     <t>Vinicius Manzano dos Santos</t>
-  </si>
-  <si>
-    <t>Walyson Lima Pompeu</t>
-  </si>
-  <si>
-    <t>Yulian Carlo Diaz Vannuchi</t>
   </si>
   <si>
     <t>Maria Fernanda Mattoso Oliveira Rello</t>
@@ -172,12 +128,6 @@
   </si>
   <si>
     <t>Bryan Beckham de Alencar de Souza</t>
-  </si>
-  <si>
-    <t>Aluno</t>
-  </si>
-  <si>
-    <t>Orden</t>
   </si>
   <si>
     <t>PWFE</t>
@@ -203,12 +153,27 @@
   <si>
     <t>2P</t>
   </si>
+  <si>
+    <t>Aulas</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Resumo</t>
+  </si>
+  <si>
+    <t>Presenciais</t>
+  </si>
+  <si>
+    <t>Não Presenciais</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +191,13 @@
     </font>
     <font>
       <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -250,10 +222,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -261,11 +234,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -590,361 +605,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:DB31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BZ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="U3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CX13" sqref="CX13"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1309,321 +977,321 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="N2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="O2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="P2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="R2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="T2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="U2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="W2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="X2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="Z2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AD2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AE2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AH2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AI2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AJ2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AK2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AL2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AN2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="AO2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AP2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AQ2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AR2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AS2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="AT2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AU2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AV2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="AW2" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AX2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AY2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="AZ2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BA2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BB2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BC2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="BD2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BE2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BF2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BG2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BH2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="BI2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BJ2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BK2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BL2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BM2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="BN2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BO2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BP2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BQ2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BR2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="BS2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BT2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BU2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="BV2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="BW2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="BX2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BY2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="BZ2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CA2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CB2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CC2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CD2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CE2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CF2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CG2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CH2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CI2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CJ2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CK2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CL2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CM2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CN2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CO2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CP2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CQ2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CR2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CS2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CT2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CU2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CV2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="CW2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="CX2" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="CY2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="CZ2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="DA2" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="DB2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1935,12 +1603,15 @@
         <v>3</v>
       </c>
       <c r="DA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2253,11 +1924,14 @@
       </c>
       <c r="DA4" t="s">
         <v>4</v>
+      </c>
+      <c r="DB4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2569,12 +2243,15 @@
         <v>3</v>
       </c>
       <c r="DA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -2887,11 +2564,14 @@
       </c>
       <c r="DA6" t="s">
         <v>4</v>
+      </c>
+      <c r="DB6" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -2975,10 +2655,10 @@
         <v>3</v>
       </c>
       <c r="AC7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AD7" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="s">
         <v>3</v>
@@ -3116,7 +2796,7 @@
         <v>3</v>
       </c>
       <c r="BX7" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="BY7" t="s">
         <v>3</v>
@@ -3140,7 +2820,7 @@
         <v>3</v>
       </c>
       <c r="CF7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="CG7" t="s">
         <v>3</v>
@@ -3203,12 +2883,15 @@
         <v>3</v>
       </c>
       <c r="DA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -3520,12 +3203,15 @@
         <v>3</v>
       </c>
       <c r="DA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -3837,12 +3523,15 @@
         <v>3</v>
       </c>
       <c r="DA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>8</v>
@@ -4154,12 +3843,15 @@
         <v>3</v>
       </c>
       <c r="DA10" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -4472,11 +4164,14 @@
       </c>
       <c r="DA11" t="s">
         <v>4</v>
+      </c>
+      <c r="DB11" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -4788,12 +4483,15 @@
         <v>3</v>
       </c>
       <c r="DA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>11</v>
@@ -5105,12 +4803,15 @@
         <v>3</v>
       </c>
       <c r="DA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -5422,12 +5123,15 @@
         <v>3</v>
       </c>
       <c r="DA14" t="s">
+        <v>3</v>
+      </c>
+      <c r="DB14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>13</v>
@@ -5740,11 +5444,14 @@
       </c>
       <c r="DA15" t="s">
         <v>4</v>
+      </c>
+      <c r="DB15" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -6058,10 +5765,13 @@
       <c r="DA16" t="s">
         <v>3</v>
       </c>
+      <c r="DB16" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -6375,10 +6085,13 @@
       <c r="DA17" t="s">
         <v>4</v>
       </c>
+      <c r="DB17" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -6692,10 +6405,13 @@
       <c r="DA18" t="s">
         <v>4</v>
       </c>
+      <c r="DB18" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -7009,10 +6725,13 @@
       <c r="DA19" t="s">
         <v>4</v>
       </c>
+      <c r="DB19" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -7326,10 +7045,13 @@
       <c r="DA20" t="s">
         <v>3</v>
       </c>
+      <c r="DB20" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -7643,10 +7365,13 @@
       <c r="DA21" t="s">
         <v>4</v>
       </c>
+      <c r="DB21" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -7960,10 +7685,13 @@
       <c r="DA22" t="s">
         <v>3</v>
       </c>
+      <c r="DB22" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -8277,10 +8005,13 @@
       <c r="DA23" t="s">
         <v>3</v>
       </c>
+      <c r="DB23" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -8594,10 +8325,13 @@
       <c r="DA24" t="s">
         <v>4</v>
       </c>
+      <c r="DB24" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -8911,10 +8645,13 @@
       <c r="DA25" t="s">
         <v>4</v>
       </c>
+      <c r="DB25" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -9228,10 +8965,13 @@
       <c r="DA26" t="s">
         <v>3</v>
       </c>
+      <c r="DB26" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:106" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -9545,11 +9285,14 @@
       <c r="DA27" t="s">
         <v>3</v>
       </c>
+      <c r="DB27" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:106" x14ac:dyDescent="0.25">
       <c r="AH28" s="3"/>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:106" x14ac:dyDescent="0.25">
       <c r="AE31" s="3"/>
     </row>
   </sheetData>
@@ -9560,10 +9303,6249 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4538C328-8BBB-40C4-B65F-B37E11BED39A}">
+  <dimension ref="A1:AA27"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="Y3" sqref="Y3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2">
+        <v>45317</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45324</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45331</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45338</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45345</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45352</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45359</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45366</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45373</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45387</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45394</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45401</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45408</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45415</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45422</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45429</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45436</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45419</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45457</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45464</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" t="s">
+        <v>33</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>100</v>
+      </c>
+      <c r="X3">
+        <v>33</v>
+      </c>
+      <c r="Y3">
+        <v>128</v>
+      </c>
+      <c r="Z3">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>100</v>
+      </c>
+      <c r="X4">
+        <v>33</v>
+      </c>
+      <c r="Y4">
+        <v>128</v>
+      </c>
+      <c r="Z4">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>100</v>
+      </c>
+      <c r="X5">
+        <v>33</v>
+      </c>
+      <c r="Y5">
+        <v>128</v>
+      </c>
+      <c r="Z5">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>100</v>
+      </c>
+      <c r="X6">
+        <v>33</v>
+      </c>
+      <c r="Y6">
+        <v>100</v>
+      </c>
+      <c r="Z6">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="5">
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>100</v>
+      </c>
+      <c r="X7">
+        <v>33</v>
+      </c>
+      <c r="Y7">
+        <v>123</v>
+      </c>
+      <c r="Z7">
+        <v>10</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>0.92481203007518797</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8">
+        <v>100</v>
+      </c>
+      <c r="X8">
+        <v>33</v>
+      </c>
+      <c r="Y8">
+        <v>133</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>100</v>
+      </c>
+      <c r="X9">
+        <v>33</v>
+      </c>
+      <c r="Y9">
+        <v>123</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>0.92481203007518797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10">
+        <v>100</v>
+      </c>
+      <c r="X10">
+        <v>33</v>
+      </c>
+      <c r="Y10">
+        <v>128</v>
+      </c>
+      <c r="Z10">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>100</v>
+      </c>
+      <c r="X11">
+        <v>33</v>
+      </c>
+      <c r="Y11">
+        <v>100</v>
+      </c>
+      <c r="Z11">
+        <v>35</v>
+      </c>
+      <c r="AA11" s="5">
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12">
+        <v>100</v>
+      </c>
+      <c r="X12">
+        <v>33</v>
+      </c>
+      <c r="Y12">
+        <v>123</v>
+      </c>
+      <c r="Z12">
+        <v>10</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0.92481203007518797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13">
+        <v>100</v>
+      </c>
+      <c r="X13">
+        <v>33</v>
+      </c>
+      <c r="Y13">
+        <v>128</v>
+      </c>
+      <c r="Z13">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>100</v>
+      </c>
+      <c r="X14">
+        <v>33</v>
+      </c>
+      <c r="Y14">
+        <v>123</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0.92481203007518797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>4</v>
+      </c>
+      <c r="M15" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15">
+        <v>33</v>
+      </c>
+      <c r="Y15">
+        <v>103</v>
+      </c>
+      <c r="Z15">
+        <v>30</v>
+      </c>
+      <c r="AA15" s="5">
+        <v>0.77443609022556392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3</v>
+      </c>
+      <c r="V16" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16">
+        <v>33</v>
+      </c>
+      <c r="Y16">
+        <v>100</v>
+      </c>
+      <c r="Z16">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="5">
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>100</v>
+      </c>
+      <c r="X17">
+        <v>33</v>
+      </c>
+      <c r="Y17">
+        <v>113</v>
+      </c>
+      <c r="Z17">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>0.84962406015037595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" t="s">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>100</v>
+      </c>
+      <c r="X18">
+        <v>33</v>
+      </c>
+      <c r="Y18">
+        <v>108</v>
+      </c>
+      <c r="Z18">
+        <v>25</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>0.81203007518796988</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19">
+        <v>100</v>
+      </c>
+      <c r="X19">
+        <v>33</v>
+      </c>
+      <c r="Y19">
+        <v>118</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>0.88721804511278191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>100</v>
+      </c>
+      <c r="X20">
+        <v>33</v>
+      </c>
+      <c r="Y20">
+        <v>128</v>
+      </c>
+      <c r="Z20">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <v>100</v>
+      </c>
+      <c r="X21">
+        <v>33</v>
+      </c>
+      <c r="Y21">
+        <v>100</v>
+      </c>
+      <c r="Z21">
+        <v>35</v>
+      </c>
+      <c r="AA21" s="5">
+        <v>0.75187969924812026</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>100</v>
+      </c>
+      <c r="X22">
+        <v>33</v>
+      </c>
+      <c r="Y22">
+        <v>128</v>
+      </c>
+      <c r="Z22">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="5">
+        <v>0.96240601503759393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>100</v>
+      </c>
+      <c r="X23">
+        <v>33</v>
+      </c>
+      <c r="Y23">
+        <v>118</v>
+      </c>
+      <c r="Z23">
+        <v>15</v>
+      </c>
+      <c r="AA23" s="5">
+        <v>0.88721804511278191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24">
+        <v>33</v>
+      </c>
+      <c r="Y24">
+        <v>113</v>
+      </c>
+      <c r="Z24">
+        <v>20</v>
+      </c>
+      <c r="AA24" s="5">
+        <v>0.84962406015037595</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25">
+        <v>33</v>
+      </c>
+      <c r="Y25">
+        <v>133</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" t="s">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <v>100</v>
+      </c>
+      <c r="X26">
+        <v>33</v>
+      </c>
+      <c r="Y26">
+        <v>113</v>
+      </c>
+      <c r="Z26">
+        <v>20</v>
+      </c>
+      <c r="AA26" s="5">
+        <v>0.84962406015037595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>100</v>
+      </c>
+      <c r="X27">
+        <v>33</v>
+      </c>
+      <c r="Y27">
+        <v>118</v>
+      </c>
+      <c r="Z27">
+        <v>15</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0.88721804511278191</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="W1:AA1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="AB1:XFD1 A2:XFD1048576 A1:W1">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA3:AA27">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+      <formula>0.75</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8A0F0F-739B-4CA4-86BB-8C86BD5C4F80}">
+  <dimension ref="A1:AV28"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="40" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2">
+        <v>45315</v>
+      </c>
+      <c r="D1" s="2">
+        <v>45316</v>
+      </c>
+      <c r="E1" s="2">
+        <v>45322</v>
+      </c>
+      <c r="F1" s="2">
+        <v>45323</v>
+      </c>
+      <c r="G1" s="2">
+        <v>45329</v>
+      </c>
+      <c r="H1" s="2">
+        <v>45330</v>
+      </c>
+      <c r="I1" s="2">
+        <v>45336</v>
+      </c>
+      <c r="J1" s="2">
+        <v>45337</v>
+      </c>
+      <c r="K1" s="2">
+        <v>45343</v>
+      </c>
+      <c r="L1" s="2">
+        <v>45344</v>
+      </c>
+      <c r="M1" s="2">
+        <v>45350</v>
+      </c>
+      <c r="N1" s="2">
+        <v>45351</v>
+      </c>
+      <c r="O1" s="2">
+        <v>45357</v>
+      </c>
+      <c r="P1" s="2">
+        <v>45358</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>45364</v>
+      </c>
+      <c r="R1" s="2">
+        <v>45365</v>
+      </c>
+      <c r="S1" s="2">
+        <v>45371</v>
+      </c>
+      <c r="T1" s="2">
+        <v>45372</v>
+      </c>
+      <c r="U1" s="2">
+        <v>45378</v>
+      </c>
+      <c r="V1" s="2">
+        <v>45379</v>
+      </c>
+      <c r="W1" s="2">
+        <v>45385</v>
+      </c>
+      <c r="X1" s="2">
+        <v>45386</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>45392</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>45393</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>45399</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>45400</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>45406</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>45407</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>45414</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>45420</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>45421</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>45427</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>45428</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>45434</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>45435</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>45441</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>45417</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>45418</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>45455</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>45456</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>45462</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>45463</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U2" t="s">
+        <v>32</v>
+      </c>
+      <c r="V2" t="s">
+        <v>32</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>4</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+      <c r="X3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS3">
+        <v>200</v>
+      </c>
+      <c r="AT3">
+        <v>195</v>
+      </c>
+      <c r="AU3">
+        <v>5</v>
+      </c>
+      <c r="AV3" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS4">
+        <v>200</v>
+      </c>
+      <c r="AT4">
+        <v>195</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS5">
+        <v>200</v>
+      </c>
+      <c r="AT5">
+        <v>200</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3</v>
+      </c>
+      <c r="V6" t="s">
+        <v>4</v>
+      </c>
+      <c r="W6" t="s">
+        <v>4</v>
+      </c>
+      <c r="X6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS6">
+        <v>200</v>
+      </c>
+      <c r="AT6">
+        <v>150</v>
+      </c>
+      <c r="AU6">
+        <v>70</v>
+      </c>
+      <c r="AV6" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>200</v>
+      </c>
+      <c r="AT7">
+        <v>190</v>
+      </c>
+      <c r="AU7">
+        <v>10</v>
+      </c>
+      <c r="AV7" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3</v>
+      </c>
+      <c r="X8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS8">
+        <v>200</v>
+      </c>
+      <c r="AT8">
+        <v>200</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V9" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" t="s">
+        <v>3</v>
+      </c>
+      <c r="X9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS9">
+        <v>200</v>
+      </c>
+      <c r="AT9">
+        <v>180</v>
+      </c>
+      <c r="AU9">
+        <v>20</v>
+      </c>
+      <c r="AV9" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3</v>
+      </c>
+      <c r="X10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS10">
+        <v>200</v>
+      </c>
+      <c r="AT10">
+        <v>195</v>
+      </c>
+      <c r="AU10">
+        <v>5</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" t="s">
+        <v>4</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s">
+        <v>3</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3</v>
+      </c>
+      <c r="W11" t="s">
+        <v>3</v>
+      </c>
+      <c r="X11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS11">
+        <v>200</v>
+      </c>
+      <c r="AT11">
+        <v>180</v>
+      </c>
+      <c r="AU11">
+        <v>20</v>
+      </c>
+      <c r="AV11" s="5">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" t="s">
+        <v>3</v>
+      </c>
+      <c r="X12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS12">
+        <v>200</v>
+      </c>
+      <c r="AT12">
+        <v>165</v>
+      </c>
+      <c r="AU12">
+        <v>35</v>
+      </c>
+      <c r="AV12" s="5">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>3</v>
+      </c>
+      <c r="X13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS13">
+        <v>200</v>
+      </c>
+      <c r="AT13">
+        <v>200</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3</v>
+      </c>
+      <c r="X14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS14">
+        <v>200</v>
+      </c>
+      <c r="AT14">
+        <v>185</v>
+      </c>
+      <c r="AU14">
+        <v>15</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS15">
+        <v>200</v>
+      </c>
+      <c r="AT15">
+        <v>190</v>
+      </c>
+      <c r="AU15">
+        <v>10</v>
+      </c>
+      <c r="AV15" s="5">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" t="s">
+        <v>4</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" t="s">
+        <v>4</v>
+      </c>
+      <c r="V16" t="s">
+        <v>4</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS16">
+        <v>200</v>
+      </c>
+      <c r="AT16">
+        <v>165</v>
+      </c>
+      <c r="AU16">
+        <v>35</v>
+      </c>
+      <c r="AV16" s="5">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s">
+        <v>4</v>
+      </c>
+      <c r="U17" t="s">
+        <v>4</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3</v>
+      </c>
+      <c r="W17" t="s">
+        <v>3</v>
+      </c>
+      <c r="X17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS17">
+        <v>200</v>
+      </c>
+      <c r="AT17">
+        <v>155</v>
+      </c>
+      <c r="AU17">
+        <v>45</v>
+      </c>
+      <c r="AV17" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3</v>
+      </c>
+      <c r="V18" t="s">
+        <v>4</v>
+      </c>
+      <c r="W18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS18">
+        <v>200</v>
+      </c>
+      <c r="AT18">
+        <v>175</v>
+      </c>
+      <c r="AU18">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="5">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3</v>
+      </c>
+      <c r="W19" t="s">
+        <v>3</v>
+      </c>
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS19">
+        <v>200</v>
+      </c>
+      <c r="AT19">
+        <v>170</v>
+      </c>
+      <c r="AU19">
+        <v>30</v>
+      </c>
+      <c r="AV19" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V20" t="s">
+        <v>4</v>
+      </c>
+      <c r="W20" t="s">
+        <v>3</v>
+      </c>
+      <c r="X20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>200</v>
+      </c>
+      <c r="AT20">
+        <v>195</v>
+      </c>
+      <c r="AU20">
+        <v>5</v>
+      </c>
+      <c r="AV20" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3</v>
+      </c>
+      <c r="V21" t="s">
+        <v>4</v>
+      </c>
+      <c r="W21" t="s">
+        <v>3</v>
+      </c>
+      <c r="X21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS21">
+        <v>200</v>
+      </c>
+      <c r="AT21">
+        <v>170</v>
+      </c>
+      <c r="AU21">
+        <v>30</v>
+      </c>
+      <c r="AV21" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>4</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS22">
+        <v>200</v>
+      </c>
+      <c r="AT22">
+        <v>170</v>
+      </c>
+      <c r="AU22">
+        <v>30</v>
+      </c>
+      <c r="AV22" s="5">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" t="s">
+        <v>3</v>
+      </c>
+      <c r="V23" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" t="s">
+        <v>3</v>
+      </c>
+      <c r="X23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS23">
+        <v>200</v>
+      </c>
+      <c r="AT23">
+        <v>200</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>3</v>
+      </c>
+      <c r="K24" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" t="s">
+        <v>3</v>
+      </c>
+      <c r="V24" t="s">
+        <v>3</v>
+      </c>
+      <c r="W24" t="s">
+        <v>3</v>
+      </c>
+      <c r="X24" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS24">
+        <v>200</v>
+      </c>
+      <c r="AT24">
+        <v>155</v>
+      </c>
+      <c r="AU24">
+        <v>45</v>
+      </c>
+      <c r="AV24" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" t="s">
+        <v>3</v>
+      </c>
+      <c r="J25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K25" t="s">
+        <v>3</v>
+      </c>
+      <c r="L25" t="s">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>3</v>
+      </c>
+      <c r="P25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25" t="s">
+        <v>3</v>
+      </c>
+      <c r="V25" t="s">
+        <v>3</v>
+      </c>
+      <c r="W25" t="s">
+        <v>3</v>
+      </c>
+      <c r="X25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS25">
+        <v>200</v>
+      </c>
+      <c r="AT25">
+        <v>200</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+      <c r="AV25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>3</v>
+      </c>
+      <c r="J26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L26" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>4</v>
+      </c>
+      <c r="R26" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" t="s">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" t="s">
+        <v>3</v>
+      </c>
+      <c r="V26" t="s">
+        <v>3</v>
+      </c>
+      <c r="W26" t="s">
+        <v>4</v>
+      </c>
+      <c r="X26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS26">
+        <v>200</v>
+      </c>
+      <c r="AT26">
+        <v>175</v>
+      </c>
+      <c r="AU26">
+        <v>25</v>
+      </c>
+      <c r="AV26" s="5">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" t="s">
+        <v>3</v>
+      </c>
+      <c r="K27" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" t="s">
+        <v>3</v>
+      </c>
+      <c r="V27" t="s">
+        <v>4</v>
+      </c>
+      <c r="W27" t="s">
+        <v>3</v>
+      </c>
+      <c r="X27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS27">
+        <v>200</v>
+      </c>
+      <c r="AT27">
+        <v>185</v>
+      </c>
+      <c r="AU27">
+        <v>15</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>0.92500000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="P28" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A1:XFD1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"F"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"F"</formula>
     </cfRule>
   </conditionalFormatting>
